--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="8475" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="8475" tabRatio="714"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -311,14 +311,34 @@
   </si>
   <si>
     <t>sysconfig.sync_queue_maxnum=12000</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有项目(renterpc,renter,
+renter服务窗后台,payapi,tasktracker,partnerpc,partner,房东个人版，mododa-tasktrasck,bs）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除多余sql黑名单单统计</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -469,6 +489,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -685,7 +712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,8 +756,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,6 +998,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,14 +1031,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="17"/>
     <cellStyle name="常规 2 2" xfId="9"/>
@@ -1019,6 +1055,7 @@
     <cellStyle name="常规 7" xfId="13"/>
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="常规 9 2" xfId="10"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8"/>
     <cellStyle name="甘特图" xfId="4"/>
     <cellStyle name="甘特图 2" xfId="11"/>
     <cellStyle name="强调文字颜色 4" xfId="16" builtinId="41"/>
@@ -1379,14 +1416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1413,7 +1450,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1484,9 +1521,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1">
       <c r="A2" s="51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>23</v>
@@ -1542,25 +1579,55 @@
       <c r="W2" s="74"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="60">
+        <v>42751</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="60">
+        <v>42751</v>
+      </c>
       <c r="K3" s="59"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="59"/>
+      <c r="L3" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>94</v>
+      </c>
       <c r="N3" s="67"/>
-      <c r="O3" s="59"/>
+      <c r="O3" s="59" t="s">
+        <v>29</v>
+      </c>
       <c r="P3" s="63"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="63"/>
+      <c r="Q3" s="60">
+        <v>42751</v>
+      </c>
+      <c r="R3" s="63" t="s">
+        <v>30</v>
+      </c>
       <c r="S3" s="57"/>
       <c r="T3" s="57"/>
       <c r="U3" s="57"/>
@@ -1568,7 +1635,7 @@
       <c r="W3" s="74"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -1594,7 +1661,7 @@
       <c r="W4" s="74"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1620,7 +1687,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1646,7 +1713,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1672,7 +1739,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1698,7 +1765,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1724,7 +1791,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1750,7 +1817,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1776,7 +1843,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1802,7 +1869,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1828,7 +1895,7 @@
       <c r="W13" s="76"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1853,7 +1920,7 @@
       <c r="V14" s="57"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1878,7 +1945,7 @@
       <c r="V15" s="57"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1903,7 +1970,7 @@
       <c r="V16" s="57"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1928,7 +1995,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="74"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1953,7 +2020,7 @@
       <c r="V18" s="57"/>
       <c r="W18" s="74"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -1978,7 +2045,7 @@
       <c r="V19" s="57"/>
       <c r="W19" s="74"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2003,7 +2070,7 @@
       <c r="V20" s="72"/>
       <c r="W20" s="77"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2028,7 +2095,7 @@
       <c r="V21" s="73"/>
       <c r="W21" s="77"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2053,7 +2120,7 @@
       <c r="V22" s="78"/>
       <c r="W22" s="77"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2078,7 +2145,7 @@
       <c r="V23" s="73"/>
       <c r="W23" s="77"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2103,7 +2170,7 @@
       <c r="V24" s="73"/>
       <c r="W24" s="77"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2128,7 +2195,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="63"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2153,7 +2220,7 @@
       <c r="V26" s="57"/>
       <c r="W26" s="74"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2178,7 +2245,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="74"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2203,7 +2270,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="74"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2228,7 +2295,7 @@
       <c r="V29" s="73"/>
       <c r="W29" s="77"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2253,7 +2320,7 @@
       <c r="V30" s="57"/>
       <c r="W30" s="52"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2278,7 +2345,7 @@
       <c r="V31" s="57"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2303,7 +2370,7 @@
       <c r="V32" s="57"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2328,7 +2395,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="74"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2353,7 +2420,7 @@
       <c r="V34" s="57"/>
       <c r="W34" s="74"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2378,7 +2445,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2403,7 +2470,7 @@
       <c r="V36" s="57"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2428,7 +2495,7 @@
       <c r="V37" s="57"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2453,7 +2520,7 @@
       <c r="V38" s="57"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2478,7 +2545,7 @@
       <c r="V39" s="57"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2503,7 +2570,7 @@
       <c r="V40" s="57"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2528,7 +2595,7 @@
       <c r="V41" s="71"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2553,7 +2620,7 @@
       <c r="V42" s="71"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2578,7 +2645,7 @@
       <c r="V43" s="57"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2603,7 +2670,7 @@
       <c r="V44" s="57"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2628,7 +2695,7 @@
       <c r="V45" s="57"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2653,7 +2720,7 @@
       <c r="V46" s="57"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2678,7 +2745,7 @@
       <c r="V47" s="57"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2703,7 +2770,7 @@
       <c r="V48" s="57"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2728,7 +2795,7 @@
       <c r="V49" s="57"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="57"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -2753,7 +2820,7 @@
       <c r="V50" s="57"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
@@ -2778,7 +2845,7 @@
       <c r="V51" s="57"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="57"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -2803,7 +2870,7 @@
       <c r="V52" s="57"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -2828,7 +2895,7 @@
       <c r="V53" s="57"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -2853,7 +2920,7 @@
       <c r="V54" s="57"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -2878,7 +2945,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="58"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -2903,7 +2970,7 @@
       <c r="V56" s="57"/>
       <c r="W56" s="58"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -2928,7 +2995,7 @@
       <c r="V57" s="57"/>
       <c r="W57" s="58"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -2953,7 +3020,7 @@
       <c r="V58" s="57"/>
       <c r="W58" s="58"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -2978,7 +3045,7 @@
       <c r="V59" s="57"/>
       <c r="W59" s="58"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="57"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -3003,7 +3070,7 @@
       <c r="V60" s="57"/>
       <c r="W60" s="58"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -3028,7 +3095,7 @@
       <c r="V61" s="57"/>
       <c r="W61" s="58"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="57"/>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -3053,7 +3120,7 @@
       <c r="V62" s="57"/>
       <c r="W62" s="58"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -3078,7 +3145,7 @@
       <c r="V63" s="57"/>
       <c r="W63" s="58"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="57"/>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -3103,7 +3170,7 @@
       <c r="V64" s="57"/>
       <c r="W64" s="58"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="57"/>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -3128,7 +3195,7 @@
       <c r="V65" s="57"/>
       <c r="W65" s="58"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="57"/>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -3153,7 +3220,7 @@
       <c r="V66" s="57"/>
       <c r="W66" s="58"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="57"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -3178,7 +3245,7 @@
       <c r="V67" s="57"/>
       <c r="W67" s="58"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="57"/>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -3203,7 +3270,7 @@
       <c r="V68" s="57"/>
       <c r="W68" s="58"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="57"/>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -3228,7 +3295,7 @@
       <c r="V69" s="57"/>
       <c r="W69" s="58"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="57"/>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -3253,7 +3320,7 @@
       <c r="V70" s="57"/>
       <c r="W70" s="58"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="57"/>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -3278,7 +3345,7 @@
       <c r="V71" s="57"/>
       <c r="W71" s="58"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="57"/>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -3303,7 +3370,7 @@
       <c r="V72" s="57"/>
       <c r="W72" s="58"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="57"/>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -3328,7 +3395,7 @@
       <c r="V73" s="57"/>
       <c r="W73" s="58"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="57"/>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -3353,7 +3420,7 @@
       <c r="V74" s="57"/>
       <c r="W74" s="58"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="57"/>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -3378,7 +3445,7 @@
       <c r="V75" s="57"/>
       <c r="W75" s="58"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23">
       <c r="A76" s="57"/>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -3403,7 +3470,7 @@
       <c r="V76" s="57"/>
       <c r="W76" s="58"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23">
       <c r="A77" s="57"/>
       <c r="B77" s="57"/>
       <c r="C77" s="57"/>
@@ -3428,7 +3495,7 @@
       <c r="V77" s="57"/>
       <c r="W77" s="58"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23">
       <c r="A78" s="57"/>
       <c r="B78" s="57"/>
       <c r="C78" s="57"/>
@@ -3453,7 +3520,7 @@
       <c r="V78" s="57"/>
       <c r="W78" s="58"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="57"/>
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
@@ -3478,7 +3545,7 @@
       <c r="V79" s="57"/>
       <c r="W79" s="58"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="57"/>
       <c r="B80" s="57"/>
       <c r="C80" s="57"/>
@@ -3503,7 +3570,7 @@
       <c r="V80" s="57"/>
       <c r="W80" s="58"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="57"/>
       <c r="B81" s="57"/>
       <c r="C81" s="57"/>
@@ -3528,7 +3595,7 @@
       <c r="V81" s="57"/>
       <c r="W81" s="58"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="57"/>
       <c r="B82" s="57"/>
       <c r="C82" s="57"/>
@@ -3553,7 +3620,7 @@
       <c r="V82" s="57"/>
       <c r="W82" s="58"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="57"/>
       <c r="B83" s="57"/>
       <c r="C83" s="57"/>
@@ -3578,7 +3645,7 @@
       <c r="V83" s="57"/>
       <c r="W83" s="58"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="57"/>
       <c r="B84" s="57"/>
       <c r="C84" s="57"/>
@@ -3603,7 +3670,7 @@
       <c r="V84" s="57"/>
       <c r="W84" s="58"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="57"/>
       <c r="B85" s="57"/>
       <c r="C85" s="57"/>
@@ -3628,7 +3695,7 @@
       <c r="V85" s="57"/>
       <c r="W85" s="58"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="57"/>
       <c r="B86" s="57"/>
       <c r="C86" s="57"/>
@@ -3653,7 +3720,7 @@
       <c r="V86" s="57"/>
       <c r="W86" s="58"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="57"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57"/>
@@ -3678,7 +3745,7 @@
       <c r="V87" s="57"/>
       <c r="W87" s="58"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="57"/>
       <c r="B88" s="57"/>
       <c r="C88" s="57"/>
@@ -3703,7 +3770,7 @@
       <c r="V88" s="57"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="57"/>
       <c r="B89" s="57"/>
       <c r="C89" s="57"/>
@@ -3728,7 +3795,7 @@
       <c r="V89" s="57"/>
       <c r="W89" s="58"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
@@ -3753,7 +3820,7 @@
       <c r="V90" s="57"/>
       <c r="W90" s="58"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
@@ -3778,7 +3845,7 @@
       <c r="V91" s="57"/>
       <c r="W91" s="58"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
@@ -3803,7 +3870,7 @@
       <c r="V92" s="57"/>
       <c r="W92" s="58"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
@@ -3828,7 +3895,7 @@
       <c r="V93" s="57"/>
       <c r="W93" s="58"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
@@ -3853,7 +3920,7 @@
       <c r="V94" s="57"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
@@ -3878,7 +3945,7 @@
       <c r="V95" s="57"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
@@ -3903,7 +3970,7 @@
       <c r="V96" s="57"/>
       <c r="W96" s="58"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
@@ -3928,7 +3995,7 @@
       <c r="V97" s="57"/>
       <c r="W97" s="58"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -3953,7 +4020,7 @@
       <c r="V98" s="57"/>
       <c r="W98" s="58"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="57"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
@@ -3978,7 +4045,7 @@
       <c r="V99" s="57"/>
       <c r="W99" s="58"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="57"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
@@ -4003,7 +4070,7 @@
       <c r="V100" s="57"/>
       <c r="W100" s="58"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
@@ -4028,7 +4095,7 @@
       <c r="V101" s="57"/>
       <c r="W101" s="58"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
       <c r="C102" s="57"/>
@@ -4053,7 +4120,7 @@
       <c r="V102" s="57"/>
       <c r="W102" s="58"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
       <c r="C103" s="57"/>
@@ -4078,7 +4145,7 @@
       <c r="V103" s="57"/>
       <c r="W103" s="58"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
@@ -4103,7 +4170,7 @@
       <c r="V104" s="57"/>
       <c r="W104" s="58"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
       <c r="C105" s="57"/>
@@ -4128,7 +4195,7 @@
       <c r="V105" s="57"/>
       <c r="W105" s="58"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
       <c r="C106" s="57"/>
@@ -4153,7 +4220,7 @@
       <c r="V106" s="57"/>
       <c r="W106" s="58"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="57"/>
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
@@ -4178,7 +4245,7 @@
       <c r="V107" s="57"/>
       <c r="W107" s="58"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
       <c r="C108" s="57"/>
@@ -4203,7 +4270,7 @@
       <c r="V108" s="57"/>
       <c r="W108" s="58"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
       <c r="C109" s="57"/>
@@ -4228,7 +4295,7 @@
       <c r="V109" s="57"/>
       <c r="W109" s="58"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
@@ -4253,7 +4320,7 @@
       <c r="V110" s="57"/>
       <c r="W110" s="58"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
       <c r="C111" s="57"/>
@@ -4278,7 +4345,7 @@
       <c r="V111" s="57"/>
       <c r="W111" s="58"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="57"/>
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
@@ -4303,7 +4370,7 @@
       <c r="V112" s="57"/>
       <c r="W112" s="58"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
@@ -4328,7 +4395,7 @@
       <c r="V113" s="57"/>
       <c r="W113" s="58"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
       <c r="C114" s="57"/>
@@ -4353,7 +4420,7 @@
       <c r="V114" s="57"/>
       <c r="W114" s="58"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
       <c r="C115" s="57"/>
@@ -4378,7 +4445,7 @@
       <c r="V115" s="57"/>
       <c r="W115" s="58"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="57"/>
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
@@ -4403,7 +4470,7 @@
       <c r="V116" s="57"/>
       <c r="W116" s="58"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
       <c r="C117" s="57"/>
@@ -4428,7 +4495,7 @@
       <c r="V117" s="57"/>
       <c r="W117" s="58"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
@@ -4453,7 +4520,7 @@
       <c r="V118" s="57"/>
       <c r="W118" s="58"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
       <c r="C119" s="57"/>
@@ -4478,7 +4545,7 @@
       <c r="V119" s="57"/>
       <c r="W119" s="58"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="57"/>
       <c r="B120" s="57"/>
       <c r="C120" s="57"/>
@@ -4503,7 +4570,7 @@
       <c r="V120" s="57"/>
       <c r="W120" s="58"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
       <c r="C121" s="57"/>
@@ -4528,7 +4595,7 @@
       <c r="V121" s="57"/>
       <c r="W121" s="58"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
       <c r="C122" s="57"/>
@@ -4553,7 +4620,7 @@
       <c r="V122" s="57"/>
       <c r="W122" s="58"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
       <c r="C123" s="57"/>
@@ -4578,7 +4645,7 @@
       <c r="V123" s="57"/>
       <c r="W123" s="58"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="57"/>
       <c r="B124" s="57"/>
       <c r="C124" s="57"/>
@@ -4603,7 +4670,7 @@
       <c r="V124" s="57"/>
       <c r="W124" s="58"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
       <c r="C125" s="57"/>
@@ -4628,7 +4695,7 @@
       <c r="V125" s="57"/>
       <c r="W125" s="58"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
       <c r="C126" s="57"/>
@@ -4653,7 +4720,7 @@
       <c r="V126" s="57"/>
       <c r="W126" s="58"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
       <c r="C127" s="57"/>
@@ -4678,7 +4745,7 @@
       <c r="V127" s="57"/>
       <c r="W127" s="58"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="57"/>
       <c r="B128" s="57"/>
       <c r="C128" s="57"/>
@@ -4703,7 +4770,7 @@
       <c r="V128" s="57"/>
       <c r="W128" s="58"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
       <c r="C129" s="57"/>
@@ -4728,7 +4795,7 @@
       <c r="V129" s="57"/>
       <c r="W129" s="58"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
       <c r="C130" s="57"/>
@@ -4753,7 +4820,7 @@
       <c r="V130" s="57"/>
       <c r="W130" s="58"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
       <c r="C131" s="57"/>
@@ -4778,7 +4845,7 @@
       <c r="V131" s="57"/>
       <c r="W131" s="58"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="57"/>
       <c r="B132" s="57"/>
       <c r="C132" s="57"/>
@@ -4799,7 +4866,7 @@
       <c r="R132" s="58"/>
       <c r="W132" s="58"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="57"/>
       <c r="B133" s="57"/>
       <c r="C133" s="57"/>
@@ -4820,7 +4887,7 @@
       <c r="R133" s="58"/>
       <c r="W133" s="58"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
       <c r="C134" s="57"/>
@@ -4841,7 +4908,7 @@
       <c r="R134" s="58"/>
       <c r="W134" s="58"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
       <c r="C135" s="57"/>
@@ -4862,7 +4929,7 @@
       <c r="R135" s="58"/>
       <c r="W135" s="58"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="57"/>
       <c r="B136" s="57"/>
       <c r="C136" s="57"/>
@@ -4883,7 +4950,7 @@
       <c r="R136" s="58"/>
       <c r="W136" s="58"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="57"/>
       <c r="B137" s="57"/>
       <c r="C137" s="57"/>
@@ -4904,7 +4971,7 @@
       <c r="R137" s="58"/>
       <c r="W137" s="58"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="57"/>
       <c r="B138" s="57"/>
       <c r="C138" s="57"/>
@@ -4925,7 +4992,7 @@
       <c r="R138" s="58"/>
       <c r="W138" s="58"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="57"/>
       <c r="B139" s="57"/>
       <c r="C139" s="57"/>
@@ -4946,7 +5013,7 @@
       <c r="R139" s="58"/>
       <c r="W139" s="58"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="57"/>
       <c r="B140" s="57"/>
       <c r="C140" s="57"/>
@@ -4967,7 +5034,7 @@
       <c r="R140" s="58"/>
       <c r="W140" s="58"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="57"/>
       <c r="B141" s="57"/>
       <c r="C141" s="57"/>
@@ -4988,7 +5055,7 @@
       <c r="R141" s="58"/>
       <c r="W141" s="58"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="57"/>
       <c r="B142" s="57"/>
       <c r="C142" s="57"/>
@@ -5009,7 +5076,7 @@
       <c r="R142" s="58"/>
       <c r="W142" s="58"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="57"/>
       <c r="B143" s="57"/>
       <c r="C143" s="57"/>
@@ -5030,7 +5097,7 @@
       <c r="R143" s="58"/>
       <c r="W143" s="58"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="57"/>
       <c r="B144" s="57"/>
       <c r="C144" s="57"/>
@@ -5051,7 +5118,7 @@
       <c r="R144" s="58"/>
       <c r="W144" s="58"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="57"/>
       <c r="B145" s="57"/>
       <c r="C145" s="57"/>
@@ -5072,7 +5139,7 @@
       <c r="R145" s="58"/>
       <c r="W145" s="58"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="57"/>
       <c r="B146" s="57"/>
       <c r="C146" s="57"/>
@@ -5093,7 +5160,7 @@
       <c r="R146" s="58"/>
       <c r="W146" s="58"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="57"/>
       <c r="B147" s="57"/>
       <c r="C147" s="57"/>
@@ -5114,7 +5181,7 @@
       <c r="R147" s="58"/>
       <c r="W147" s="58"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -5135,7 +5202,7 @@
       <c r="R148" s="58"/>
       <c r="W148" s="58"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="57"/>
@@ -5156,7 +5223,7 @@
       <c r="R149" s="58"/>
       <c r="W149" s="58"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="57"/>
       <c r="B150" s="57"/>
       <c r="C150" s="57"/>
@@ -5177,7 +5244,7 @@
       <c r="R150" s="58"/>
       <c r="W150" s="58"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="57"/>
       <c r="B151" s="57"/>
       <c r="C151" s="57"/>
@@ -5198,7 +5265,7 @@
       <c r="R151" s="58"/>
       <c r="W151" s="58"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="57"/>
       <c r="B152" s="57"/>
       <c r="C152" s="57"/>
@@ -5219,7 +5286,7 @@
       <c r="R152" s="58"/>
       <c r="W152" s="58"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
       <c r="C153" s="57"/>
@@ -5240,7 +5307,7 @@
       <c r="R153" s="58"/>
       <c r="W153" s="58"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
       <c r="C154" s="57"/>
@@ -5261,7 +5328,7 @@
       <c r="R154" s="58"/>
       <c r="W154" s="58"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
       <c r="C155" s="57"/>
@@ -5282,7 +5349,7 @@
       <c r="R155" s="58"/>
       <c r="W155" s="58"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
       <c r="C156" s="57"/>
@@ -5303,7 +5370,7 @@
       <c r="R156" s="58"/>
       <c r="W156" s="58"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
       <c r="C157" s="57"/>
@@ -5324,7 +5391,7 @@
       <c r="R157" s="58"/>
       <c r="W157" s="58"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
       <c r="C158" s="57"/>
@@ -5345,7 +5412,7 @@
       <c r="R158" s="58"/>
       <c r="W158" s="58"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="57"/>
@@ -5366,7 +5433,7 @@
       <c r="R159" s="58"/>
       <c r="W159" s="58"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="57"/>
@@ -5387,7 +5454,7 @@
       <c r="R160" s="58"/>
       <c r="W160" s="58"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="57"/>
@@ -5408,7 +5475,7 @@
       <c r="R161" s="58"/>
       <c r="W161" s="58"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="57"/>
@@ -5429,7 +5496,7 @@
       <c r="R162" s="58"/>
       <c r="W162" s="58"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="57"/>
@@ -5450,7 +5517,7 @@
       <c r="R163" s="58"/>
       <c r="W163" s="58"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="57"/>
       <c r="B164" s="57"/>
       <c r="C164" s="57"/>
@@ -5471,7 +5538,7 @@
       <c r="R164" s="58"/>
       <c r="W164" s="58"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="57"/>
@@ -5492,7 +5559,7 @@
       <c r="R165" s="58"/>
       <c r="W165" s="58"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="57"/>
@@ -5547,14 +5614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5574,7 +5641,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
@@ -5630,7 +5697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5650,7 +5717,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5670,7 +5737,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5697,14 +5764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5716,22 +5783,22 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>49</v>
       </c>
@@ -5766,9 +5833,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5779,9 +5846,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5792,9 +5859,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5805,9 +5872,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5818,9 +5885,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5831,9 +5898,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5844,9 +5911,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5857,9 +5924,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5870,7 +5937,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -5897,14 +5964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5919,39 +5986,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -5992,46 +6059,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>86</v>
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6046,7 +6113,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6061,7 +6128,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6076,7 +6143,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6091,7 +6158,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6106,7 +6173,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6121,7 +6188,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6136,7 +6203,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6151,7 +6218,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6166,7 +6233,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6181,7 +6248,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6196,7 +6263,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6235,14 +6302,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6257,39 +6324,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6330,46 +6397,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>86</v>
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6384,7 +6451,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6399,7 +6466,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6414,7 +6481,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6429,7 +6496,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6444,7 +6511,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6459,7 +6526,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6474,7 +6541,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6489,7 +6556,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6504,7 +6571,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6519,7 +6586,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6534,7 +6601,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6573,14 +6640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6595,39 +6662,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6668,46 +6735,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>86</v>
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6722,7 +6789,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6737,7 +6804,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6752,7 +6819,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6767,7 +6834,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6782,7 +6849,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6797,7 +6864,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6812,7 +6879,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6827,7 +6894,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6842,7 +6909,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6857,7 +6924,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6872,7 +6939,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6911,14 +6978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="A4:L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6935,39 +7002,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -7008,63 +7075,67 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>86</v>
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C5" s="79"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="52"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5">
       <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
@@ -7077,7 +7148,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7092,7 +7163,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7107,7 +7178,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7122,7 +7193,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7137,7 +7208,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7152,7 +7223,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7167,7 +7238,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7182,7 +7253,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7197,7 +7268,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7212,7 +7283,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7232,8 +7303,8 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4 I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
@@ -7242,8 +7313,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 E5">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
+      <formula1>"能,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7251,14 +7337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7269,7 +7355,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -7295,7 +7381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7305,7 +7391,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7315,7 +7401,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7325,7 +7411,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7335,7 +7421,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7345,7 +7431,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7355,7 +7441,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7365,7 +7451,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7375,7 +7461,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7385,7 +7471,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7395,7 +7481,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7405,7 +7491,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7415,7 +7501,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7425,7 +7511,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7435,7 +7521,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7445,7 +7531,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7455,7 +7541,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7465,7 +7551,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -332,6 +332,24 @@
   <si>
     <t>排除多余sql黑名单单统计</t>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重要</t>
+  </si>
+  <si>
+    <t>蘑菇宝首期押金退款计算问题</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartnerPc/PartnerApp</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1022,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1030,12 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="19" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1419,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1637,27 +1655,53 @@
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
+      <c r="B4" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="60">
+        <v>42753</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="60">
+        <v>42753</v>
+      </c>
       <c r="K4" s="59"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="59"/>
+      <c r="L4" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>27</v>
+      </c>
       <c r="N4" s="67"/>
       <c r="O4" s="59"/>
       <c r="P4" s="63"/>
       <c r="Q4" s="60"/>
       <c r="R4" s="63"/>
       <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
+      <c r="T4" s="57">
+        <v>7621</v>
+      </c>
       <c r="U4" s="57"/>
-      <c r="V4" s="70"/>
+      <c r="V4" s="70" t="s">
+        <v>100</v>
+      </c>
       <c r="W4" s="74"/>
       <c r="X4" s="75"/>
     </row>
@@ -5784,19 +5828,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5834,8 +5878,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5847,8 +5891,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5860,8 +5904,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5873,8 +5917,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5886,8 +5930,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5899,8 +5943,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5912,8 +5956,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5925,8 +5969,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5987,36 +6031,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6325,36 +6369,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6663,36 +6707,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7003,36 +7047,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:19" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7128,8 +7172,8 @@
       <c r="L5" s="63"/>
       <c r="M5" s="60"/>
       <c r="N5" s="63"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="91"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
       <c r="Q5" s="71"/>
       <c r="R5" s="74"/>
       <c r="S5" s="52"/>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -350,13 +350,16 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>CODESPLIT-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -514,6 +517,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -778,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1065,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1437,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1646,7 +1660,9 @@
       <c r="R3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="57"/>
+      <c r="S3" s="92" t="s">
+        <v>101</v>
+      </c>
       <c r="T3" s="57"/>
       <c r="U3" s="57"/>
       <c r="V3" s="70"/>
@@ -5652,8 +5668,11 @@
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S3" r:id="rId1" display="http://192.168.60.204/browse/CODESPLIT-21"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="8475" tabRatio="714"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="10635" tabRatio="714"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,13 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -353,13 +354,32 @@
   </si>
   <si>
     <t>CODESPLIT-21</t>
+  </si>
+  <si>
+    <t>短信列表去除内容查询文本框</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>免测</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1039,6 +1059,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,9 +1088,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1090,7 +1110,7 @@
     <cellStyle name="超链接" xfId="19" builtinId="8"/>
     <cellStyle name="甘特图" xfId="4"/>
     <cellStyle name="甘特图 2" xfId="11"/>
-    <cellStyle name="强调文字颜色 4" xfId="16" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="16" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1448,14 +1468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1482,7 +1502,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1611,7 +1631,7 @@
       <c r="W2" s="74"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1660,7 +1680,7 @@
       <c r="R3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="S3" s="83" t="s">
         <v>101</v>
       </c>
       <c r="T3" s="57"/>
@@ -1669,8 +1689,10 @@
       <c r="W3" s="74"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
       <c r="B4" s="51" t="s">
         <v>96</v>
       </c>
@@ -1721,25 +1743,57 @@
       <c r="W4" s="74"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="60">
+        <v>42755</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="60">
+        <v>42755</v>
+      </c>
       <c r="K5" s="59"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="59"/>
+      <c r="L5" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>27</v>
+      </c>
       <c r="N5" s="67"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="63"/>
+      <c r="O5" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="60">
+        <v>42755</v>
+      </c>
+      <c r="R5" s="63" t="s">
+        <v>30</v>
+      </c>
       <c r="S5" s="71"/>
       <c r="T5" s="71"/>
       <c r="U5" s="71"/>
@@ -1747,7 +1801,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1773,7 +1827,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1799,7 +1853,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1825,7 +1879,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1851,7 +1905,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1877,7 +1931,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1903,7 +1957,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1929,7 +1983,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1955,7 +2009,7 @@
       <c r="W13" s="76"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5">
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1980,7 +2034,7 @@
       <c r="V14" s="57"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5">
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2005,7 +2059,7 @@
       <c r="V15" s="57"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5">
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2030,7 +2084,7 @@
       <c r="V16" s="57"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2055,7 +2109,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="74"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2080,7 +2134,7 @@
       <c r="V18" s="57"/>
       <c r="W18" s="74"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2105,7 +2159,7 @@
       <c r="V19" s="57"/>
       <c r="W19" s="74"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2130,7 +2184,7 @@
       <c r="V20" s="72"/>
       <c r="W20" s="77"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2155,7 +2209,7 @@
       <c r="V21" s="73"/>
       <c r="W21" s="77"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2180,7 +2234,7 @@
       <c r="V22" s="78"/>
       <c r="W22" s="77"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2205,7 +2259,7 @@
       <c r="V23" s="73"/>
       <c r="W23" s="77"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2230,7 +2284,7 @@
       <c r="V24" s="73"/>
       <c r="W24" s="77"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2255,7 +2309,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="63"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2280,7 +2334,7 @@
       <c r="V26" s="57"/>
       <c r="W26" s="74"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2305,7 +2359,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="74"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2330,7 +2384,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="74"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2355,7 +2409,7 @@
       <c r="V29" s="73"/>
       <c r="W29" s="77"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2380,7 +2434,7 @@
       <c r="V30" s="57"/>
       <c r="W30" s="52"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2405,7 +2459,7 @@
       <c r="V31" s="57"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2430,7 +2484,7 @@
       <c r="V32" s="57"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2455,7 +2509,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="74"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2480,7 +2534,7 @@
       <c r="V34" s="57"/>
       <c r="W34" s="74"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2505,7 +2559,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2530,7 +2584,7 @@
       <c r="V36" s="57"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2555,7 +2609,7 @@
       <c r="V37" s="57"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2580,7 +2634,7 @@
       <c r="V38" s="57"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2605,7 +2659,7 @@
       <c r="V39" s="57"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2630,7 +2684,7 @@
       <c r="V40" s="57"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2655,7 +2709,7 @@
       <c r="V41" s="71"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2680,7 +2734,7 @@
       <c r="V42" s="71"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2705,7 +2759,7 @@
       <c r="V43" s="57"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2730,7 +2784,7 @@
       <c r="V44" s="57"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2755,7 +2809,7 @@
       <c r="V45" s="57"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2780,7 +2834,7 @@
       <c r="V46" s="57"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2805,7 +2859,7 @@
       <c r="V47" s="57"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2830,7 +2884,7 @@
       <c r="V48" s="57"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2855,7 +2909,7 @@
       <c r="V49" s="57"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -2880,7 +2934,7 @@
       <c r="V50" s="57"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
@@ -2905,7 +2959,7 @@
       <c r="V51" s="57"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -2930,7 +2984,7 @@
       <c r="V52" s="57"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -2955,7 +3009,7 @@
       <c r="V53" s="57"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -2980,7 +3034,7 @@
       <c r="V54" s="57"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -3005,7 +3059,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="58"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -3030,7 +3084,7 @@
       <c r="V56" s="57"/>
       <c r="W56" s="58"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -3055,7 +3109,7 @@
       <c r="V57" s="57"/>
       <c r="W57" s="58"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -3080,7 +3134,7 @@
       <c r="V58" s="57"/>
       <c r="W58" s="58"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -3105,7 +3159,7 @@
       <c r="V59" s="57"/>
       <c r="W59" s="58"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -3130,7 +3184,7 @@
       <c r="V60" s="57"/>
       <c r="W60" s="58"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -3155,7 +3209,7 @@
       <c r="V61" s="57"/>
       <c r="W61" s="58"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -3180,7 +3234,7 @@
       <c r="V62" s="57"/>
       <c r="W62" s="58"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -3205,7 +3259,7 @@
       <c r="V63" s="57"/>
       <c r="W63" s="58"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -3230,7 +3284,7 @@
       <c r="V64" s="57"/>
       <c r="W64" s="58"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -3255,7 +3309,7 @@
       <c r="V65" s="57"/>
       <c r="W65" s="58"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -3280,7 +3334,7 @@
       <c r="V66" s="57"/>
       <c r="W66" s="58"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -3305,7 +3359,7 @@
       <c r="V67" s="57"/>
       <c r="W67" s="58"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -3330,7 +3384,7 @@
       <c r="V68" s="57"/>
       <c r="W68" s="58"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -3355,7 +3409,7 @@
       <c r="V69" s="57"/>
       <c r="W69" s="58"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -3380,7 +3434,7 @@
       <c r="V70" s="57"/>
       <c r="W70" s="58"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -3405,7 +3459,7 @@
       <c r="V71" s="57"/>
       <c r="W71" s="58"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -3430,7 +3484,7 @@
       <c r="V72" s="57"/>
       <c r="W72" s="58"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -3455,7 +3509,7 @@
       <c r="V73" s="57"/>
       <c r="W73" s="58"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -3480,7 +3534,7 @@
       <c r="V74" s="57"/>
       <c r="W74" s="58"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -3505,7 +3559,7 @@
       <c r="V75" s="57"/>
       <c r="W75" s="58"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -3530,7 +3584,7 @@
       <c r="V76" s="57"/>
       <c r="W76" s="58"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="57"/>
       <c r="C77" s="57"/>
@@ -3555,7 +3609,7 @@
       <c r="V77" s="57"/>
       <c r="W77" s="58"/>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="57"/>
       <c r="C78" s="57"/>
@@ -3580,7 +3634,7 @@
       <c r="V78" s="57"/>
       <c r="W78" s="58"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
@@ -3605,7 +3659,7 @@
       <c r="V79" s="57"/>
       <c r="W79" s="58"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="57"/>
       <c r="C80" s="57"/>
@@ -3630,7 +3684,7 @@
       <c r="V80" s="57"/>
       <c r="W80" s="58"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="57"/>
       <c r="C81" s="57"/>
@@ -3655,7 +3709,7 @@
       <c r="V81" s="57"/>
       <c r="W81" s="58"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="57"/>
       <c r="C82" s="57"/>
@@ -3680,7 +3734,7 @@
       <c r="V82" s="57"/>
       <c r="W82" s="58"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="57"/>
       <c r="C83" s="57"/>
@@ -3705,7 +3759,7 @@
       <c r="V83" s="57"/>
       <c r="W83" s="58"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="57"/>
       <c r="C84" s="57"/>
@@ -3730,7 +3784,7 @@
       <c r="V84" s="57"/>
       <c r="W84" s="58"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="57"/>
       <c r="C85" s="57"/>
@@ -3755,7 +3809,7 @@
       <c r="V85" s="57"/>
       <c r="W85" s="58"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="57"/>
       <c r="C86" s="57"/>
@@ -3780,7 +3834,7 @@
       <c r="V86" s="57"/>
       <c r="W86" s="58"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57"/>
@@ -3805,7 +3859,7 @@
       <c r="V87" s="57"/>
       <c r="W87" s="58"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="57"/>
       <c r="C88" s="57"/>
@@ -3830,7 +3884,7 @@
       <c r="V88" s="57"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="57"/>
       <c r="C89" s="57"/>
@@ -3855,7 +3909,7 @@
       <c r="V89" s="57"/>
       <c r="W89" s="58"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
@@ -3880,7 +3934,7 @@
       <c r="V90" s="57"/>
       <c r="W90" s="58"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
@@ -3905,7 +3959,7 @@
       <c r="V91" s="57"/>
       <c r="W91" s="58"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
@@ -3930,7 +3984,7 @@
       <c r="V92" s="57"/>
       <c r="W92" s="58"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
@@ -3955,7 +4009,7 @@
       <c r="V93" s="57"/>
       <c r="W93" s="58"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
@@ -3980,7 +4034,7 @@
       <c r="V94" s="57"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
@@ -4005,7 +4059,7 @@
       <c r="V95" s="57"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
@@ -4030,7 +4084,7 @@
       <c r="V96" s="57"/>
       <c r="W96" s="58"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
@@ -4055,7 +4109,7 @@
       <c r="V97" s="57"/>
       <c r="W97" s="58"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -4080,7 +4134,7 @@
       <c r="V98" s="57"/>
       <c r="W98" s="58"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="57"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
@@ -4105,7 +4159,7 @@
       <c r="V99" s="57"/>
       <c r="W99" s="58"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
@@ -4130,7 +4184,7 @@
       <c r="V100" s="57"/>
       <c r="W100" s="58"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
@@ -4155,7 +4209,7 @@
       <c r="V101" s="57"/>
       <c r="W101" s="58"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
       <c r="C102" s="57"/>
@@ -4180,7 +4234,7 @@
       <c r="V102" s="57"/>
       <c r="W102" s="58"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
       <c r="C103" s="57"/>
@@ -4205,7 +4259,7 @@
       <c r="V103" s="57"/>
       <c r="W103" s="58"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
@@ -4230,7 +4284,7 @@
       <c r="V104" s="57"/>
       <c r="W104" s="58"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
       <c r="C105" s="57"/>
@@ -4255,7 +4309,7 @@
       <c r="V105" s="57"/>
       <c r="W105" s="58"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
       <c r="C106" s="57"/>
@@ -4280,7 +4334,7 @@
       <c r="V106" s="57"/>
       <c r="W106" s="58"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
@@ -4305,7 +4359,7 @@
       <c r="V107" s="57"/>
       <c r="W107" s="58"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
       <c r="C108" s="57"/>
@@ -4330,7 +4384,7 @@
       <c r="V108" s="57"/>
       <c r="W108" s="58"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
       <c r="C109" s="57"/>
@@ -4355,7 +4409,7 @@
       <c r="V109" s="57"/>
       <c r="W109" s="58"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
@@ -4380,7 +4434,7 @@
       <c r="V110" s="57"/>
       <c r="W110" s="58"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
       <c r="C111" s="57"/>
@@ -4405,7 +4459,7 @@
       <c r="V111" s="57"/>
       <c r="W111" s="58"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="57"/>
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
@@ -4430,7 +4484,7 @@
       <c r="V112" s="57"/>
       <c r="W112" s="58"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
@@ -4455,7 +4509,7 @@
       <c r="V113" s="57"/>
       <c r="W113" s="58"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
       <c r="C114" s="57"/>
@@ -4480,7 +4534,7 @@
       <c r="V114" s="57"/>
       <c r="W114" s="58"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
       <c r="C115" s="57"/>
@@ -4505,7 +4559,7 @@
       <c r="V115" s="57"/>
       <c r="W115" s="58"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="57"/>
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
@@ -4530,7 +4584,7 @@
       <c r="V116" s="57"/>
       <c r="W116" s="58"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
       <c r="C117" s="57"/>
@@ -4555,7 +4609,7 @@
       <c r="V117" s="57"/>
       <c r="W117" s="58"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
@@ -4580,7 +4634,7 @@
       <c r="V118" s="57"/>
       <c r="W118" s="58"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
       <c r="C119" s="57"/>
@@ -4605,7 +4659,7 @@
       <c r="V119" s="57"/>
       <c r="W119" s="58"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="57"/>
       <c r="B120" s="57"/>
       <c r="C120" s="57"/>
@@ -4630,7 +4684,7 @@
       <c r="V120" s="57"/>
       <c r="W120" s="58"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
       <c r="C121" s="57"/>
@@ -4655,7 +4709,7 @@
       <c r="V121" s="57"/>
       <c r="W121" s="58"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
       <c r="C122" s="57"/>
@@ -4680,7 +4734,7 @@
       <c r="V122" s="57"/>
       <c r="W122" s="58"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
       <c r="C123" s="57"/>
@@ -4705,7 +4759,7 @@
       <c r="V123" s="57"/>
       <c r="W123" s="58"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="57"/>
       <c r="B124" s="57"/>
       <c r="C124" s="57"/>
@@ -4730,7 +4784,7 @@
       <c r="V124" s="57"/>
       <c r="W124" s="58"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
       <c r="C125" s="57"/>
@@ -4755,7 +4809,7 @@
       <c r="V125" s="57"/>
       <c r="W125" s="58"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
       <c r="C126" s="57"/>
@@ -4780,7 +4834,7 @@
       <c r="V126" s="57"/>
       <c r="W126" s="58"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
       <c r="C127" s="57"/>
@@ -4805,7 +4859,7 @@
       <c r="V127" s="57"/>
       <c r="W127" s="58"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="57"/>
       <c r="B128" s="57"/>
       <c r="C128" s="57"/>
@@ -4830,7 +4884,7 @@
       <c r="V128" s="57"/>
       <c r="W128" s="58"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
       <c r="C129" s="57"/>
@@ -4855,7 +4909,7 @@
       <c r="V129" s="57"/>
       <c r="W129" s="58"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
       <c r="C130" s="57"/>
@@ -4880,7 +4934,7 @@
       <c r="V130" s="57"/>
       <c r="W130" s="58"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
       <c r="C131" s="57"/>
@@ -4905,7 +4959,7 @@
       <c r="V131" s="57"/>
       <c r="W131" s="58"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="57"/>
       <c r="B132" s="57"/>
       <c r="C132" s="57"/>
@@ -4926,7 +4980,7 @@
       <c r="R132" s="58"/>
       <c r="W132" s="58"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="57"/>
       <c r="B133" s="57"/>
       <c r="C133" s="57"/>
@@ -4947,7 +5001,7 @@
       <c r="R133" s="58"/>
       <c r="W133" s="58"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
       <c r="C134" s="57"/>
@@ -4968,7 +5022,7 @@
       <c r="R134" s="58"/>
       <c r="W134" s="58"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
       <c r="C135" s="57"/>
@@ -4989,7 +5043,7 @@
       <c r="R135" s="58"/>
       <c r="W135" s="58"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="57"/>
       <c r="B136" s="57"/>
       <c r="C136" s="57"/>
@@ -5010,7 +5064,7 @@
       <c r="R136" s="58"/>
       <c r="W136" s="58"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="57"/>
       <c r="B137" s="57"/>
       <c r="C137" s="57"/>
@@ -5031,7 +5085,7 @@
       <c r="R137" s="58"/>
       <c r="W137" s="58"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="57"/>
       <c r="B138" s="57"/>
       <c r="C138" s="57"/>
@@ -5052,7 +5106,7 @@
       <c r="R138" s="58"/>
       <c r="W138" s="58"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="57"/>
       <c r="B139" s="57"/>
       <c r="C139" s="57"/>
@@ -5073,7 +5127,7 @@
       <c r="R139" s="58"/>
       <c r="W139" s="58"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="57"/>
       <c r="B140" s="57"/>
       <c r="C140" s="57"/>
@@ -5094,7 +5148,7 @@
       <c r="R140" s="58"/>
       <c r="W140" s="58"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="57"/>
       <c r="B141" s="57"/>
       <c r="C141" s="57"/>
@@ -5115,7 +5169,7 @@
       <c r="R141" s="58"/>
       <c r="W141" s="58"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="57"/>
       <c r="B142" s="57"/>
       <c r="C142" s="57"/>
@@ -5136,7 +5190,7 @@
       <c r="R142" s="58"/>
       <c r="W142" s="58"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="57"/>
       <c r="B143" s="57"/>
       <c r="C143" s="57"/>
@@ -5157,7 +5211,7 @@
       <c r="R143" s="58"/>
       <c r="W143" s="58"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="57"/>
       <c r="B144" s="57"/>
       <c r="C144" s="57"/>
@@ -5178,7 +5232,7 @@
       <c r="R144" s="58"/>
       <c r="W144" s="58"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="57"/>
       <c r="B145" s="57"/>
       <c r="C145" s="57"/>
@@ -5199,7 +5253,7 @@
       <c r="R145" s="58"/>
       <c r="W145" s="58"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="57"/>
       <c r="B146" s="57"/>
       <c r="C146" s="57"/>
@@ -5220,7 +5274,7 @@
       <c r="R146" s="58"/>
       <c r="W146" s="58"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="57"/>
       <c r="B147" s="57"/>
       <c r="C147" s="57"/>
@@ -5241,7 +5295,7 @@
       <c r="R147" s="58"/>
       <c r="W147" s="58"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -5262,7 +5316,7 @@
       <c r="R148" s="58"/>
       <c r="W148" s="58"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="57"/>
@@ -5283,7 +5337,7 @@
       <c r="R149" s="58"/>
       <c r="W149" s="58"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="57"/>
       <c r="B150" s="57"/>
       <c r="C150" s="57"/>
@@ -5304,7 +5358,7 @@
       <c r="R150" s="58"/>
       <c r="W150" s="58"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="57"/>
       <c r="B151" s="57"/>
       <c r="C151" s="57"/>
@@ -5325,7 +5379,7 @@
       <c r="R151" s="58"/>
       <c r="W151" s="58"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="57"/>
       <c r="B152" s="57"/>
       <c r="C152" s="57"/>
@@ -5346,7 +5400,7 @@
       <c r="R152" s="58"/>
       <c r="W152" s="58"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
       <c r="C153" s="57"/>
@@ -5367,7 +5421,7 @@
       <c r="R153" s="58"/>
       <c r="W153" s="58"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
       <c r="C154" s="57"/>
@@ -5388,7 +5442,7 @@
       <c r="R154" s="58"/>
       <c r="W154" s="58"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
       <c r="C155" s="57"/>
@@ -5409,7 +5463,7 @@
       <c r="R155" s="58"/>
       <c r="W155" s="58"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
       <c r="C156" s="57"/>
@@ -5430,7 +5484,7 @@
       <c r="R156" s="58"/>
       <c r="W156" s="58"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
       <c r="C157" s="57"/>
@@ -5451,7 +5505,7 @@
       <c r="R157" s="58"/>
       <c r="W157" s="58"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
       <c r="C158" s="57"/>
@@ -5472,7 +5526,7 @@
       <c r="R158" s="58"/>
       <c r="W158" s="58"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="57"/>
@@ -5493,7 +5547,7 @@
       <c r="R159" s="58"/>
       <c r="W159" s="58"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="57"/>
@@ -5514,7 +5568,7 @@
       <c r="R160" s="58"/>
       <c r="W160" s="58"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="57"/>
@@ -5535,7 +5589,7 @@
       <c r="R161" s="58"/>
       <c r="W161" s="58"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="57"/>
@@ -5556,7 +5610,7 @@
       <c r="R162" s="58"/>
       <c r="W162" s="58"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="57"/>
@@ -5577,7 +5631,7 @@
       <c r="R163" s="58"/>
       <c r="W163" s="58"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="57"/>
       <c r="B164" s="57"/>
       <c r="C164" s="57"/>
@@ -5598,7 +5652,7 @@
       <c r="R164" s="58"/>
       <c r="W164" s="58"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="57"/>
@@ -5619,7 +5673,7 @@
       <c r="R165" s="58"/>
       <c r="W165" s="58"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="57"/>
@@ -5677,14 +5731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5704,7 +5758,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
@@ -5760,7 +5814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5780,7 +5834,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5800,7 +5854,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5827,14 +5881,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5846,22 +5900,22 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>49</v>
       </c>
@@ -5896,9 +5950,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5909,9 +5963,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5922,9 +5976,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5935,9 +5989,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5948,9 +6002,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5961,9 +6015,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5974,9 +6028,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5987,9 +6041,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6000,7 +6054,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6027,14 +6081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6049,39 +6103,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6122,7 +6176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6161,7 +6215,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6176,7 +6230,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6191,7 +6245,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6206,7 +6260,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6221,7 +6275,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6236,7 +6290,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6251,7 +6305,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6266,7 +6320,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6281,7 +6335,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6296,7 +6350,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6311,7 +6365,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6326,7 +6380,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6365,14 +6419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6387,39 +6441,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6460,7 +6514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6499,7 +6553,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6514,7 +6568,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6529,7 +6583,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6544,7 +6598,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6559,7 +6613,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6574,7 +6628,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6589,7 +6643,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6604,7 +6658,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6619,7 +6673,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6634,7 +6688,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6649,7 +6703,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6664,7 +6718,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6703,14 +6757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6725,39 +6779,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6798,7 +6852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6837,7 +6891,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6852,7 +6906,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6867,7 +6921,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6882,7 +6936,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6897,7 +6951,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6912,7 +6966,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6927,7 +6981,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6942,7 +6996,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6957,7 +7011,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6972,7 +7026,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6987,7 +7041,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7002,7 +7056,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7041,14 +7095,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7065,39 +7119,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:19" ht="16.5">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -7138,7 +7192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.5">
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7177,7 +7231,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5">
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="79"/>
@@ -7197,7 +7251,7 @@
       <c r="R5" s="74"/>
       <c r="S5" s="52"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5">
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7211,7 +7265,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5">
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7226,7 +7280,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5">
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7241,7 +7295,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5">
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7256,7 +7310,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5">
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7271,7 +7325,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5">
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7286,7 +7340,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5">
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7301,7 +7355,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5">
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7316,7 +7370,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5">
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7331,7 +7385,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5">
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7346,7 +7400,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5">
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7400,14 +7454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7418,7 +7472,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -7444,7 +7498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7454,7 +7508,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7464,7 +7518,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7474,7 +7528,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7484,7 +7538,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7494,7 +7548,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7504,7 +7558,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7514,7 +7568,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7524,7 +7578,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7534,7 +7588,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7544,7 +7598,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7554,7 +7608,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7564,7 +7618,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7574,7 +7628,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7584,7 +7638,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7594,7 +7648,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7604,7 +7658,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7614,7 +7668,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="8475" tabRatio="714"/>
@@ -24,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -353,6 +353,25 @@
   </si>
   <si>
     <t>CODESPLIT-21</t>
+  </si>
+  <si>
+    <t>业务日志表数据监控</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>王涛</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>无资源测试</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>已提测，但无测试资源</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-434</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1058,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,9 +1087,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1451,22 +1470,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="48" customWidth="1"/>
     <col min="12" max="12" width="19.125" style="47" customWidth="1"/>
     <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
     <col min="14" max="15" width="11.375" style="47" customWidth="1"/>
@@ -1611,7 +1630,7 @@
       <c r="W2" s="74"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="121.5" customHeight="1">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1651,7 +1670,7 @@
       </c>
       <c r="N3" s="67"/>
       <c r="O3" s="59" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="60">
@@ -1660,17 +1679,21 @@
       <c r="R3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="S3" s="83" t="s">
         <v>101</v>
       </c>
       <c r="T3" s="57"/>
       <c r="U3" s="57"/>
-      <c r="V3" s="70"/>
+      <c r="V3" s="70" t="s">
+        <v>100</v>
+      </c>
       <c r="W3" s="74"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="48" customHeight="1">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
       <c r="B4" s="51" t="s">
         <v>96</v>
       </c>
@@ -1721,33 +1744,67 @@
       <c r="W4" s="74"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="141" customHeight="1">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="60">
+        <v>42754</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="60">
+        <v>42754</v>
+      </c>
       <c r="K5" s="59"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="59"/>
+      <c r="L5" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>27</v>
+      </c>
       <c r="N5" s="67"/>
-      <c r="O5" s="59"/>
+      <c r="O5" s="59" t="s">
+        <v>105</v>
+      </c>
       <c r="P5" s="63"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="71"/>
+      <c r="Q5" s="60">
+        <v>42754</v>
+      </c>
+      <c r="R5" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="82" t="s">
+        <v>106</v>
+      </c>
       <c r="T5" s="71"/>
       <c r="U5" s="71"/>
-      <c r="V5" s="70"/>
+      <c r="V5" s="70" t="s">
+        <v>100</v>
+      </c>
       <c r="W5" s="74"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="45.75" customHeight="1">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1773,7 +1830,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1799,7 +1856,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -5670,9 +5727,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S3" r:id="rId1" display="http://192.168.60.204/browse/CODESPLIT-21"/>
+    <hyperlink ref="S5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5847,19 +5905,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5897,8 +5955,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5910,8 +5968,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5923,8 +5981,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5936,8 +5994,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5949,8 +6007,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5962,8 +6020,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5975,8 +6033,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5988,8 +6046,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6050,36 +6108,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6388,36 +6446,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6726,36 +6784,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7066,36 +7124,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:19" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="10635" tabRatio="714"/>
@@ -24,13 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -378,8 +377,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1110,7 +1109,7 @@
     <cellStyle name="超链接" xfId="19" builtinId="8"/>
     <cellStyle name="甘特图" xfId="4"/>
     <cellStyle name="甘特图 2" xfId="11"/>
-    <cellStyle name="着色 4" xfId="16" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="16" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1468,14 +1467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1502,7 +1501,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1631,7 +1630,7 @@
       <c r="W2" s="74"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1669,7 +1668,9 @@
       <c r="M3" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="67"/>
+      <c r="N3" s="67" t="s">
+        <v>28</v>
+      </c>
       <c r="O3" s="59" t="s">
         <v>29</v>
       </c>
@@ -1689,7 +1690,7 @@
       <c r="W3" s="74"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="51">
         <v>3</v>
       </c>
@@ -1743,7 +1744,7 @@
       <c r="W4" s="74"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="51">
         <v>4</v>
       </c>
@@ -1801,7 +1802,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1827,7 +1828,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1853,7 +1854,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1879,7 +1880,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1905,7 +1906,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1931,7 +1932,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1957,7 +1958,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1983,7 +1984,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -2009,7 +2010,7 @@
       <c r="W13" s="76"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -2034,7 +2035,7 @@
       <c r="V14" s="57"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2059,7 +2060,7 @@
       <c r="V15" s="57"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2084,7 +2085,7 @@
       <c r="V16" s="57"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2109,7 +2110,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="74"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2134,7 +2135,7 @@
       <c r="V18" s="57"/>
       <c r="W18" s="74"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2159,7 +2160,7 @@
       <c r="V19" s="57"/>
       <c r="W19" s="74"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2184,7 +2185,7 @@
       <c r="V20" s="72"/>
       <c r="W20" s="77"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2209,7 +2210,7 @@
       <c r="V21" s="73"/>
       <c r="W21" s="77"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2234,7 +2235,7 @@
       <c r="V22" s="78"/>
       <c r="W22" s="77"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2259,7 +2260,7 @@
       <c r="V23" s="73"/>
       <c r="W23" s="77"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2284,7 +2285,7 @@
       <c r="V24" s="73"/>
       <c r="W24" s="77"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2309,7 +2310,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="63"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2334,7 +2335,7 @@
       <c r="V26" s="57"/>
       <c r="W26" s="74"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2359,7 +2360,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="74"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2384,7 +2385,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="74"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2409,7 +2410,7 @@
       <c r="V29" s="73"/>
       <c r="W29" s="77"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2434,7 +2435,7 @@
       <c r="V30" s="57"/>
       <c r="W30" s="52"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2459,7 +2460,7 @@
       <c r="V31" s="57"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2484,7 +2485,7 @@
       <c r="V32" s="57"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2509,7 +2510,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="74"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2534,7 +2535,7 @@
       <c r="V34" s="57"/>
       <c r="W34" s="74"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2559,7 +2560,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2584,7 +2585,7 @@
       <c r="V36" s="57"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2609,7 +2610,7 @@
       <c r="V37" s="57"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2634,7 +2635,7 @@
       <c r="V38" s="57"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2659,7 +2660,7 @@
       <c r="V39" s="57"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2684,7 +2685,7 @@
       <c r="V40" s="57"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2709,7 +2710,7 @@
       <c r="V41" s="71"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2734,7 +2735,7 @@
       <c r="V42" s="71"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2759,7 +2760,7 @@
       <c r="V43" s="57"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2784,7 +2785,7 @@
       <c r="V44" s="57"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2809,7 +2810,7 @@
       <c r="V45" s="57"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2834,7 +2835,7 @@
       <c r="V46" s="57"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2859,7 +2860,7 @@
       <c r="V47" s="57"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2884,7 +2885,7 @@
       <c r="V48" s="57"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2909,7 +2910,7 @@
       <c r="V49" s="57"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="57"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -2934,7 +2935,7 @@
       <c r="V50" s="57"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
@@ -2959,7 +2960,7 @@
       <c r="V51" s="57"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="57"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -2984,7 +2985,7 @@
       <c r="V52" s="57"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -3009,7 +3010,7 @@
       <c r="V53" s="57"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -3034,7 +3035,7 @@
       <c r="V54" s="57"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -3059,7 +3060,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="58"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -3084,7 +3085,7 @@
       <c r="V56" s="57"/>
       <c r="W56" s="58"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -3109,7 +3110,7 @@
       <c r="V57" s="57"/>
       <c r="W57" s="58"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -3134,7 +3135,7 @@
       <c r="V58" s="57"/>
       <c r="W58" s="58"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -3159,7 +3160,7 @@
       <c r="V59" s="57"/>
       <c r="W59" s="58"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="57"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -3184,7 +3185,7 @@
       <c r="V60" s="57"/>
       <c r="W60" s="58"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -3209,7 +3210,7 @@
       <c r="V61" s="57"/>
       <c r="W61" s="58"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="57"/>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -3234,7 +3235,7 @@
       <c r="V62" s="57"/>
       <c r="W62" s="58"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -3259,7 +3260,7 @@
       <c r="V63" s="57"/>
       <c r="W63" s="58"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="57"/>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -3284,7 +3285,7 @@
       <c r="V64" s="57"/>
       <c r="W64" s="58"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="57"/>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -3309,7 +3310,7 @@
       <c r="V65" s="57"/>
       <c r="W65" s="58"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="57"/>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -3334,7 +3335,7 @@
       <c r="V66" s="57"/>
       <c r="W66" s="58"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="57"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -3359,7 +3360,7 @@
       <c r="V67" s="57"/>
       <c r="W67" s="58"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="57"/>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -3384,7 +3385,7 @@
       <c r="V68" s="57"/>
       <c r="W68" s="58"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="57"/>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -3409,7 +3410,7 @@
       <c r="V69" s="57"/>
       <c r="W69" s="58"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="57"/>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -3434,7 +3435,7 @@
       <c r="V70" s="57"/>
       <c r="W70" s="58"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="57"/>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -3459,7 +3460,7 @@
       <c r="V71" s="57"/>
       <c r="W71" s="58"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="57"/>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -3484,7 +3485,7 @@
       <c r="V72" s="57"/>
       <c r="W72" s="58"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="57"/>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -3509,7 +3510,7 @@
       <c r="V73" s="57"/>
       <c r="W73" s="58"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="57"/>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -3534,7 +3535,7 @@
       <c r="V74" s="57"/>
       <c r="W74" s="58"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="57"/>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -3559,7 +3560,7 @@
       <c r="V75" s="57"/>
       <c r="W75" s="58"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23">
       <c r="A76" s="57"/>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -3584,7 +3585,7 @@
       <c r="V76" s="57"/>
       <c r="W76" s="58"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23">
       <c r="A77" s="57"/>
       <c r="B77" s="57"/>
       <c r="C77" s="57"/>
@@ -3609,7 +3610,7 @@
       <c r="V77" s="57"/>
       <c r="W77" s="58"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23">
       <c r="A78" s="57"/>
       <c r="B78" s="57"/>
       <c r="C78" s="57"/>
@@ -3634,7 +3635,7 @@
       <c r="V78" s="57"/>
       <c r="W78" s="58"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="57"/>
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
@@ -3659,7 +3660,7 @@
       <c r="V79" s="57"/>
       <c r="W79" s="58"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="57"/>
       <c r="B80" s="57"/>
       <c r="C80" s="57"/>
@@ -3684,7 +3685,7 @@
       <c r="V80" s="57"/>
       <c r="W80" s="58"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="57"/>
       <c r="B81" s="57"/>
       <c r="C81" s="57"/>
@@ -3709,7 +3710,7 @@
       <c r="V81" s="57"/>
       <c r="W81" s="58"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="57"/>
       <c r="B82" s="57"/>
       <c r="C82" s="57"/>
@@ -3734,7 +3735,7 @@
       <c r="V82" s="57"/>
       <c r="W82" s="58"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="57"/>
       <c r="B83" s="57"/>
       <c r="C83" s="57"/>
@@ -3759,7 +3760,7 @@
       <c r="V83" s="57"/>
       <c r="W83" s="58"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="57"/>
       <c r="B84" s="57"/>
       <c r="C84" s="57"/>
@@ -3784,7 +3785,7 @@
       <c r="V84" s="57"/>
       <c r="W84" s="58"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="57"/>
       <c r="B85" s="57"/>
       <c r="C85" s="57"/>
@@ -3809,7 +3810,7 @@
       <c r="V85" s="57"/>
       <c r="W85" s="58"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="57"/>
       <c r="B86" s="57"/>
       <c r="C86" s="57"/>
@@ -3834,7 +3835,7 @@
       <c r="V86" s="57"/>
       <c r="W86" s="58"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="57"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57"/>
@@ -3859,7 +3860,7 @@
       <c r="V87" s="57"/>
       <c r="W87" s="58"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="57"/>
       <c r="B88" s="57"/>
       <c r="C88" s="57"/>
@@ -3884,7 +3885,7 @@
       <c r="V88" s="57"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="57"/>
       <c r="B89" s="57"/>
       <c r="C89" s="57"/>
@@ -3909,7 +3910,7 @@
       <c r="V89" s="57"/>
       <c r="W89" s="58"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
@@ -3934,7 +3935,7 @@
       <c r="V90" s="57"/>
       <c r="W90" s="58"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
@@ -3959,7 +3960,7 @@
       <c r="V91" s="57"/>
       <c r="W91" s="58"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
@@ -3984,7 +3985,7 @@
       <c r="V92" s="57"/>
       <c r="W92" s="58"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
@@ -4009,7 +4010,7 @@
       <c r="V93" s="57"/>
       <c r="W93" s="58"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
@@ -4034,7 +4035,7 @@
       <c r="V94" s="57"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
@@ -4059,7 +4060,7 @@
       <c r="V95" s="57"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
@@ -4084,7 +4085,7 @@
       <c r="V96" s="57"/>
       <c r="W96" s="58"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
@@ -4109,7 +4110,7 @@
       <c r="V97" s="57"/>
       <c r="W97" s="58"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -4134,7 +4135,7 @@
       <c r="V98" s="57"/>
       <c r="W98" s="58"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="57"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
@@ -4159,7 +4160,7 @@
       <c r="V99" s="57"/>
       <c r="W99" s="58"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="57"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
@@ -4184,7 +4185,7 @@
       <c r="V100" s="57"/>
       <c r="W100" s="58"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
@@ -4209,7 +4210,7 @@
       <c r="V101" s="57"/>
       <c r="W101" s="58"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
       <c r="C102" s="57"/>
@@ -4234,7 +4235,7 @@
       <c r="V102" s="57"/>
       <c r="W102" s="58"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
       <c r="C103" s="57"/>
@@ -4259,7 +4260,7 @@
       <c r="V103" s="57"/>
       <c r="W103" s="58"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
@@ -4284,7 +4285,7 @@
       <c r="V104" s="57"/>
       <c r="W104" s="58"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
       <c r="C105" s="57"/>
@@ -4309,7 +4310,7 @@
       <c r="V105" s="57"/>
       <c r="W105" s="58"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
       <c r="C106" s="57"/>
@@ -4334,7 +4335,7 @@
       <c r="V106" s="57"/>
       <c r="W106" s="58"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="57"/>
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
@@ -4359,7 +4360,7 @@
       <c r="V107" s="57"/>
       <c r="W107" s="58"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
       <c r="C108" s="57"/>
@@ -4384,7 +4385,7 @@
       <c r="V108" s="57"/>
       <c r="W108" s="58"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
       <c r="C109" s="57"/>
@@ -4409,7 +4410,7 @@
       <c r="V109" s="57"/>
       <c r="W109" s="58"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
@@ -4434,7 +4435,7 @@
       <c r="V110" s="57"/>
       <c r="W110" s="58"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
       <c r="C111" s="57"/>
@@ -4459,7 +4460,7 @@
       <c r="V111" s="57"/>
       <c r="W111" s="58"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="57"/>
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
@@ -4484,7 +4485,7 @@
       <c r="V112" s="57"/>
       <c r="W112" s="58"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
@@ -4509,7 +4510,7 @@
       <c r="V113" s="57"/>
       <c r="W113" s="58"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
       <c r="C114" s="57"/>
@@ -4534,7 +4535,7 @@
       <c r="V114" s="57"/>
       <c r="W114" s="58"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
       <c r="C115" s="57"/>
@@ -4559,7 +4560,7 @@
       <c r="V115" s="57"/>
       <c r="W115" s="58"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="57"/>
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
@@ -4584,7 +4585,7 @@
       <c r="V116" s="57"/>
       <c r="W116" s="58"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
       <c r="C117" s="57"/>
@@ -4609,7 +4610,7 @@
       <c r="V117" s="57"/>
       <c r="W117" s="58"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
@@ -4634,7 +4635,7 @@
       <c r="V118" s="57"/>
       <c r="W118" s="58"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
       <c r="C119" s="57"/>
@@ -4659,7 +4660,7 @@
       <c r="V119" s="57"/>
       <c r="W119" s="58"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="57"/>
       <c r="B120" s="57"/>
       <c r="C120" s="57"/>
@@ -4684,7 +4685,7 @@
       <c r="V120" s="57"/>
       <c r="W120" s="58"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
       <c r="C121" s="57"/>
@@ -4709,7 +4710,7 @@
       <c r="V121" s="57"/>
       <c r="W121" s="58"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
       <c r="C122" s="57"/>
@@ -4734,7 +4735,7 @@
       <c r="V122" s="57"/>
       <c r="W122" s="58"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
       <c r="C123" s="57"/>
@@ -4759,7 +4760,7 @@
       <c r="V123" s="57"/>
       <c r="W123" s="58"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="57"/>
       <c r="B124" s="57"/>
       <c r="C124" s="57"/>
@@ -4784,7 +4785,7 @@
       <c r="V124" s="57"/>
       <c r="W124" s="58"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
       <c r="C125" s="57"/>
@@ -4809,7 +4810,7 @@
       <c r="V125" s="57"/>
       <c r="W125" s="58"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
       <c r="C126" s="57"/>
@@ -4834,7 +4835,7 @@
       <c r="V126" s="57"/>
       <c r="W126" s="58"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
       <c r="C127" s="57"/>
@@ -4859,7 +4860,7 @@
       <c r="V127" s="57"/>
       <c r="W127" s="58"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="57"/>
       <c r="B128" s="57"/>
       <c r="C128" s="57"/>
@@ -4884,7 +4885,7 @@
       <c r="V128" s="57"/>
       <c r="W128" s="58"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
       <c r="C129" s="57"/>
@@ -4909,7 +4910,7 @@
       <c r="V129" s="57"/>
       <c r="W129" s="58"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
       <c r="C130" s="57"/>
@@ -4934,7 +4935,7 @@
       <c r="V130" s="57"/>
       <c r="W130" s="58"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
       <c r="C131" s="57"/>
@@ -4959,7 +4960,7 @@
       <c r="V131" s="57"/>
       <c r="W131" s="58"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="57"/>
       <c r="B132" s="57"/>
       <c r="C132" s="57"/>
@@ -4980,7 +4981,7 @@
       <c r="R132" s="58"/>
       <c r="W132" s="58"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="57"/>
       <c r="B133" s="57"/>
       <c r="C133" s="57"/>
@@ -5001,7 +5002,7 @@
       <c r="R133" s="58"/>
       <c r="W133" s="58"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
       <c r="C134" s="57"/>
@@ -5022,7 +5023,7 @@
       <c r="R134" s="58"/>
       <c r="W134" s="58"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
       <c r="C135" s="57"/>
@@ -5043,7 +5044,7 @@
       <c r="R135" s="58"/>
       <c r="W135" s="58"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="57"/>
       <c r="B136" s="57"/>
       <c r="C136" s="57"/>
@@ -5064,7 +5065,7 @@
       <c r="R136" s="58"/>
       <c r="W136" s="58"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="57"/>
       <c r="B137" s="57"/>
       <c r="C137" s="57"/>
@@ -5085,7 +5086,7 @@
       <c r="R137" s="58"/>
       <c r="W137" s="58"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="57"/>
       <c r="B138" s="57"/>
       <c r="C138" s="57"/>
@@ -5106,7 +5107,7 @@
       <c r="R138" s="58"/>
       <c r="W138" s="58"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="57"/>
       <c r="B139" s="57"/>
       <c r="C139" s="57"/>
@@ -5127,7 +5128,7 @@
       <c r="R139" s="58"/>
       <c r="W139" s="58"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="57"/>
       <c r="B140" s="57"/>
       <c r="C140" s="57"/>
@@ -5148,7 +5149,7 @@
       <c r="R140" s="58"/>
       <c r="W140" s="58"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="57"/>
       <c r="B141" s="57"/>
       <c r="C141" s="57"/>
@@ -5169,7 +5170,7 @@
       <c r="R141" s="58"/>
       <c r="W141" s="58"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="57"/>
       <c r="B142" s="57"/>
       <c r="C142" s="57"/>
@@ -5190,7 +5191,7 @@
       <c r="R142" s="58"/>
       <c r="W142" s="58"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="57"/>
       <c r="B143" s="57"/>
       <c r="C143" s="57"/>
@@ -5211,7 +5212,7 @@
       <c r="R143" s="58"/>
       <c r="W143" s="58"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="57"/>
       <c r="B144" s="57"/>
       <c r="C144" s="57"/>
@@ -5232,7 +5233,7 @@
       <c r="R144" s="58"/>
       <c r="W144" s="58"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="57"/>
       <c r="B145" s="57"/>
       <c r="C145" s="57"/>
@@ -5253,7 +5254,7 @@
       <c r="R145" s="58"/>
       <c r="W145" s="58"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="57"/>
       <c r="B146" s="57"/>
       <c r="C146" s="57"/>
@@ -5274,7 +5275,7 @@
       <c r="R146" s="58"/>
       <c r="W146" s="58"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="57"/>
       <c r="B147" s="57"/>
       <c r="C147" s="57"/>
@@ -5295,7 +5296,7 @@
       <c r="R147" s="58"/>
       <c r="W147" s="58"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -5316,7 +5317,7 @@
       <c r="R148" s="58"/>
       <c r="W148" s="58"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="57"/>
@@ -5337,7 +5338,7 @@
       <c r="R149" s="58"/>
       <c r="W149" s="58"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="57"/>
       <c r="B150" s="57"/>
       <c r="C150" s="57"/>
@@ -5358,7 +5359,7 @@
       <c r="R150" s="58"/>
       <c r="W150" s="58"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="57"/>
       <c r="B151" s="57"/>
       <c r="C151" s="57"/>
@@ -5379,7 +5380,7 @@
       <c r="R151" s="58"/>
       <c r="W151" s="58"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="57"/>
       <c r="B152" s="57"/>
       <c r="C152" s="57"/>
@@ -5400,7 +5401,7 @@
       <c r="R152" s="58"/>
       <c r="W152" s="58"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
       <c r="C153" s="57"/>
@@ -5421,7 +5422,7 @@
       <c r="R153" s="58"/>
       <c r="W153" s="58"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
       <c r="C154" s="57"/>
@@ -5442,7 +5443,7 @@
       <c r="R154" s="58"/>
       <c r="W154" s="58"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
       <c r="C155" s="57"/>
@@ -5463,7 +5464,7 @@
       <c r="R155" s="58"/>
       <c r="W155" s="58"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
       <c r="C156" s="57"/>
@@ -5484,7 +5485,7 @@
       <c r="R156" s="58"/>
       <c r="W156" s="58"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
       <c r="C157" s="57"/>
@@ -5505,7 +5506,7 @@
       <c r="R157" s="58"/>
       <c r="W157" s="58"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
       <c r="C158" s="57"/>
@@ -5526,7 +5527,7 @@
       <c r="R158" s="58"/>
       <c r="W158" s="58"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="57"/>
@@ -5547,7 +5548,7 @@
       <c r="R159" s="58"/>
       <c r="W159" s="58"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="57"/>
@@ -5568,7 +5569,7 @@
       <c r="R160" s="58"/>
       <c r="W160" s="58"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="57"/>
@@ -5589,7 +5590,7 @@
       <c r="R161" s="58"/>
       <c r="W161" s="58"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="57"/>
@@ -5610,7 +5611,7 @@
       <c r="R162" s="58"/>
       <c r="W162" s="58"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="57"/>
@@ -5631,7 +5632,7 @@
       <c r="R163" s="58"/>
       <c r="W163" s="58"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="57"/>
       <c r="B164" s="57"/>
       <c r="C164" s="57"/>
@@ -5652,7 +5653,7 @@
       <c r="R164" s="58"/>
       <c r="W164" s="58"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="57"/>
@@ -5673,7 +5674,7 @@
       <c r="R165" s="58"/>
       <c r="W165" s="58"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="57"/>
@@ -5731,14 +5732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5758,7 +5759,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5834,7 +5835,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5854,7 +5855,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5881,14 +5882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5900,7 +5901,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="84" t="s">
         <v>48</v>
       </c>
@@ -5915,7 +5916,7 @@
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>49</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="20"/>
@@ -5963,7 +5964,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="87"/>
       <c r="B4" s="88"/>
       <c r="C4" s="20"/>
@@ -5976,7 +5977,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="86"/>
       <c r="B5" s="86"/>
       <c r="C5" s="20"/>
@@ -5989,7 +5990,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="20"/>
@@ -6002,7 +6003,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="88"/>
       <c r="B7" s="88"/>
       <c r="C7" s="20"/>
@@ -6015,7 +6016,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="88"/>
       <c r="B8" s="88"/>
       <c r="C8" s="20"/>
@@ -6028,7 +6029,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="88"/>
       <c r="B9" s="88"/>
       <c r="C9" s="20"/>
@@ -6041,7 +6042,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="20"/>
@@ -6054,7 +6055,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6081,14 +6082,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6103,7 +6104,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6120,7 +6121,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6135,7 +6136,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6215,7 +6216,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6230,7 +6231,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6245,7 +6246,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6260,7 +6261,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6275,7 +6276,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6290,7 +6291,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6305,7 +6306,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6320,7 +6321,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6335,7 +6336,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6350,7 +6351,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6365,7 +6366,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6380,7 +6381,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6419,14 +6420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6441,7 +6442,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6458,7 +6459,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6473,7 +6474,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6553,7 +6554,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6568,7 +6569,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6583,7 +6584,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6598,7 +6599,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6613,7 +6614,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6628,7 +6629,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6643,7 +6644,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6658,7 +6659,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6673,7 +6674,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6688,7 +6689,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6703,7 +6704,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6718,7 +6719,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6757,14 +6758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6779,7 +6780,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6796,7 +6797,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6811,7 +6812,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6891,7 +6892,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6906,7 +6907,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6921,7 +6922,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6936,7 +6937,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6951,7 +6952,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6966,7 +6967,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6981,7 +6982,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6996,7 +6997,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7011,7 +7012,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7026,7 +7027,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7041,7 +7042,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7056,7 +7057,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7095,14 +7096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7119,7 +7120,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -7136,7 +7137,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -7151,7 +7152,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7231,7 +7232,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="79"/>
@@ -7251,7 +7252,7 @@
       <c r="R5" s="74"/>
       <c r="S5" s="52"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="16.5">
       <c r="A6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7265,7 +7266,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7280,7 +7281,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7295,7 +7296,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7310,7 +7311,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7325,7 +7326,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7340,7 +7341,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7355,7 +7356,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7370,7 +7371,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7385,7 +7386,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7400,7 +7401,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7454,14 +7455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7472,7 +7473,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7508,7 +7509,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7518,7 +7519,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7528,7 +7529,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7538,7 +7539,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7548,7 +7549,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7558,7 +7559,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7568,7 +7569,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7578,7 +7579,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7588,7 +7589,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7598,7 +7599,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7608,7 +7609,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7618,7 +7619,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7628,7 +7629,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7638,7 +7639,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7648,7 +7649,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7658,7 +7659,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7668,7 +7669,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -372,6 +372,14 @@
   </si>
   <si>
     <t>通过</t>
+  </si>
+  <si>
+    <t>测试免测</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1470,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1687,7 +1695,9 @@
       <c r="T3" s="57"/>
       <c r="U3" s="57"/>
       <c r="V3" s="70"/>
-      <c r="W3" s="74"/>
+      <c r="W3" s="74" t="s">
+        <v>107</v>
+      </c>
       <c r="X3" s="75"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1">
@@ -1728,11 +1738,21 @@
       <c r="M4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="67"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="63"/>
+      <c r="N4" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="60">
+        <v>42755</v>
+      </c>
+      <c r="R4" s="63" t="s">
+        <v>30</v>
+      </c>
       <c r="S4" s="57"/>
       <c r="T4" s="57">
         <v>7621</v>
@@ -1782,7 +1802,9 @@
       <c r="M5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="67"/>
+      <c r="N5" s="67" t="s">
+        <v>28</v>
+      </c>
       <c r="O5" s="59" t="s">
         <v>105</v>
       </c>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="10635" tabRatio="714"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22170" windowHeight="6240" tabRatio="714"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,13 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -380,13 +381,16 @@
   <si>
     <t>王云飞</t>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW-207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1117,7 +1121,7 @@
     <cellStyle name="超链接" xfId="19" builtinId="8"/>
     <cellStyle name="甘特图" xfId="4"/>
     <cellStyle name="甘特图 2" xfId="11"/>
-    <cellStyle name="强调文字颜色 4" xfId="16" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="16" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1475,14 +1479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1509,7 +1513,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1638,7 +1642,7 @@
       <c r="W2" s="74"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1700,7 +1704,7 @@
       </c>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51">
         <v>3</v>
       </c>
@@ -1764,7 +1768,7 @@
       <c r="W4" s="74"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="36" customHeight="1">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51">
         <v>4</v>
       </c>
@@ -1817,14 +1821,16 @@
       <c r="R5" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="71"/>
+      <c r="S5" s="81" t="s">
+        <v>109</v>
+      </c>
       <c r="T5" s="71"/>
       <c r="U5" s="71"/>
       <c r="V5" s="70"/>
       <c r="W5" s="74"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1850,7 +1856,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1876,7 +1882,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1902,7 +1908,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1928,7 +1934,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1954,7 +1960,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1980,7 +1986,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -2006,7 +2012,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -2032,7 +2038,7 @@
       <c r="W13" s="76"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5">
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -2057,7 +2063,7 @@
       <c r="V14" s="57"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5">
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2082,7 +2088,7 @@
       <c r="V15" s="57"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5">
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2107,7 +2113,7 @@
       <c r="V16" s="57"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2132,7 +2138,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="74"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2157,7 +2163,7 @@
       <c r="V18" s="57"/>
       <c r="W18" s="74"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2182,7 +2188,7 @@
       <c r="V19" s="57"/>
       <c r="W19" s="74"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2207,7 +2213,7 @@
       <c r="V20" s="72"/>
       <c r="W20" s="77"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2232,7 +2238,7 @@
       <c r="V21" s="73"/>
       <c r="W21" s="77"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2257,7 +2263,7 @@
       <c r="V22" s="78"/>
       <c r="W22" s="77"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2282,7 +2288,7 @@
       <c r="V23" s="73"/>
       <c r="W23" s="77"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2307,7 +2313,7 @@
       <c r="V24" s="73"/>
       <c r="W24" s="77"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2332,7 +2338,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="63"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2357,7 +2363,7 @@
       <c r="V26" s="57"/>
       <c r="W26" s="74"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2382,7 +2388,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="74"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2407,7 +2413,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="74"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2432,7 +2438,7 @@
       <c r="V29" s="73"/>
       <c r="W29" s="77"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2457,7 +2463,7 @@
       <c r="V30" s="57"/>
       <c r="W30" s="52"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2482,7 +2488,7 @@
       <c r="V31" s="57"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2507,7 +2513,7 @@
       <c r="V32" s="57"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2532,7 +2538,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="74"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2557,7 +2563,7 @@
       <c r="V34" s="57"/>
       <c r="W34" s="74"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2582,7 +2588,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2607,7 +2613,7 @@
       <c r="V36" s="57"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2632,7 +2638,7 @@
       <c r="V37" s="57"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2657,7 +2663,7 @@
       <c r="V38" s="57"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2682,7 +2688,7 @@
       <c r="V39" s="57"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2707,7 +2713,7 @@
       <c r="V40" s="57"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2732,7 +2738,7 @@
       <c r="V41" s="71"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2757,7 +2763,7 @@
       <c r="V42" s="71"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2782,7 +2788,7 @@
       <c r="V43" s="57"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2807,7 +2813,7 @@
       <c r="V44" s="57"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2832,7 +2838,7 @@
       <c r="V45" s="57"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2857,7 +2863,7 @@
       <c r="V46" s="57"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2882,7 +2888,7 @@
       <c r="V47" s="57"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2907,7 +2913,7 @@
       <c r="V48" s="57"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2932,7 +2938,7 @@
       <c r="V49" s="57"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -2957,7 +2963,7 @@
       <c r="V50" s="57"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
@@ -2982,7 +2988,7 @@
       <c r="V51" s="57"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -3007,7 +3013,7 @@
       <c r="V52" s="57"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -3032,7 +3038,7 @@
       <c r="V53" s="57"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -3057,7 +3063,7 @@
       <c r="V54" s="57"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -3082,7 +3088,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="58"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -3107,7 +3113,7 @@
       <c r="V56" s="57"/>
       <c r="W56" s="58"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -3132,7 +3138,7 @@
       <c r="V57" s="57"/>
       <c r="W57" s="58"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -3157,7 +3163,7 @@
       <c r="V58" s="57"/>
       <c r="W58" s="58"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -3182,7 +3188,7 @@
       <c r="V59" s="57"/>
       <c r="W59" s="58"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -3207,7 +3213,7 @@
       <c r="V60" s="57"/>
       <c r="W60" s="58"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -3232,7 +3238,7 @@
       <c r="V61" s="57"/>
       <c r="W61" s="58"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -3257,7 +3263,7 @@
       <c r="V62" s="57"/>
       <c r="W62" s="58"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -3282,7 +3288,7 @@
       <c r="V63" s="57"/>
       <c r="W63" s="58"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -3307,7 +3313,7 @@
       <c r="V64" s="57"/>
       <c r="W64" s="58"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -3332,7 +3338,7 @@
       <c r="V65" s="57"/>
       <c r="W65" s="58"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -3357,7 +3363,7 @@
       <c r="V66" s="57"/>
       <c r="W66" s="58"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -3382,7 +3388,7 @@
       <c r="V67" s="57"/>
       <c r="W67" s="58"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -3407,7 +3413,7 @@
       <c r="V68" s="57"/>
       <c r="W68" s="58"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -3432,7 +3438,7 @@
       <c r="V69" s="57"/>
       <c r="W69" s="58"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -3457,7 +3463,7 @@
       <c r="V70" s="57"/>
       <c r="W70" s="58"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -3482,7 +3488,7 @@
       <c r="V71" s="57"/>
       <c r="W71" s="58"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -3507,7 +3513,7 @@
       <c r="V72" s="57"/>
       <c r="W72" s="58"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -3532,7 +3538,7 @@
       <c r="V73" s="57"/>
       <c r="W73" s="58"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -3557,7 +3563,7 @@
       <c r="V74" s="57"/>
       <c r="W74" s="58"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -3582,7 +3588,7 @@
       <c r="V75" s="57"/>
       <c r="W75" s="58"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -3607,7 +3613,7 @@
       <c r="V76" s="57"/>
       <c r="W76" s="58"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="57"/>
       <c r="C77" s="57"/>
@@ -3632,7 +3638,7 @@
       <c r="V77" s="57"/>
       <c r="W77" s="58"/>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="57"/>
       <c r="C78" s="57"/>
@@ -3657,7 +3663,7 @@
       <c r="V78" s="57"/>
       <c r="W78" s="58"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
@@ -3682,7 +3688,7 @@
       <c r="V79" s="57"/>
       <c r="W79" s="58"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="57"/>
       <c r="C80" s="57"/>
@@ -3707,7 +3713,7 @@
       <c r="V80" s="57"/>
       <c r="W80" s="58"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="57"/>
       <c r="C81" s="57"/>
@@ -3732,7 +3738,7 @@
       <c r="V81" s="57"/>
       <c r="W81" s="58"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="57"/>
       <c r="C82" s="57"/>
@@ -3757,7 +3763,7 @@
       <c r="V82" s="57"/>
       <c r="W82" s="58"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="57"/>
       <c r="C83" s="57"/>
@@ -3782,7 +3788,7 @@
       <c r="V83" s="57"/>
       <c r="W83" s="58"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="57"/>
       <c r="C84" s="57"/>
@@ -3807,7 +3813,7 @@
       <c r="V84" s="57"/>
       <c r="W84" s="58"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="57"/>
       <c r="C85" s="57"/>
@@ -3832,7 +3838,7 @@
       <c r="V85" s="57"/>
       <c r="W85" s="58"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="57"/>
       <c r="C86" s="57"/>
@@ -3857,7 +3863,7 @@
       <c r="V86" s="57"/>
       <c r="W86" s="58"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57"/>
@@ -3882,7 +3888,7 @@
       <c r="V87" s="57"/>
       <c r="W87" s="58"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="57"/>
       <c r="C88" s="57"/>
@@ -3907,7 +3913,7 @@
       <c r="V88" s="57"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="57"/>
       <c r="C89" s="57"/>
@@ -3932,7 +3938,7 @@
       <c r="V89" s="57"/>
       <c r="W89" s="58"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
@@ -3957,7 +3963,7 @@
       <c r="V90" s="57"/>
       <c r="W90" s="58"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
@@ -3982,7 +3988,7 @@
       <c r="V91" s="57"/>
       <c r="W91" s="58"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
@@ -4007,7 +4013,7 @@
       <c r="V92" s="57"/>
       <c r="W92" s="58"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
@@ -4032,7 +4038,7 @@
       <c r="V93" s="57"/>
       <c r="W93" s="58"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
@@ -4057,7 +4063,7 @@
       <c r="V94" s="57"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
@@ -4082,7 +4088,7 @@
       <c r="V95" s="57"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
@@ -4107,7 +4113,7 @@
       <c r="V96" s="57"/>
       <c r="W96" s="58"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
@@ -4132,7 +4138,7 @@
       <c r="V97" s="57"/>
       <c r="W97" s="58"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -4157,7 +4163,7 @@
       <c r="V98" s="57"/>
       <c r="W98" s="58"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="57"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
@@ -4182,7 +4188,7 @@
       <c r="V99" s="57"/>
       <c r="W99" s="58"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
@@ -4207,7 +4213,7 @@
       <c r="V100" s="57"/>
       <c r="W100" s="58"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
@@ -4232,7 +4238,7 @@
       <c r="V101" s="57"/>
       <c r="W101" s="58"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
       <c r="C102" s="57"/>
@@ -4257,7 +4263,7 @@
       <c r="V102" s="57"/>
       <c r="W102" s="58"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
       <c r="C103" s="57"/>
@@ -4282,7 +4288,7 @@
       <c r="V103" s="57"/>
       <c r="W103" s="58"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
@@ -4307,7 +4313,7 @@
       <c r="V104" s="57"/>
       <c r="W104" s="58"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
       <c r="C105" s="57"/>
@@ -4332,7 +4338,7 @@
       <c r="V105" s="57"/>
       <c r="W105" s="58"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
       <c r="C106" s="57"/>
@@ -4357,7 +4363,7 @@
       <c r="V106" s="57"/>
       <c r="W106" s="58"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
@@ -4382,7 +4388,7 @@
       <c r="V107" s="57"/>
       <c r="W107" s="58"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
       <c r="C108" s="57"/>
@@ -4407,7 +4413,7 @@
       <c r="V108" s="57"/>
       <c r="W108" s="58"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
       <c r="C109" s="57"/>
@@ -4432,7 +4438,7 @@
       <c r="V109" s="57"/>
       <c r="W109" s="58"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
@@ -4457,7 +4463,7 @@
       <c r="V110" s="57"/>
       <c r="W110" s="58"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
       <c r="C111" s="57"/>
@@ -4482,7 +4488,7 @@
       <c r="V111" s="57"/>
       <c r="W111" s="58"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="57"/>
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
@@ -4507,7 +4513,7 @@
       <c r="V112" s="57"/>
       <c r="W112" s="58"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
@@ -4532,7 +4538,7 @@
       <c r="V113" s="57"/>
       <c r="W113" s="58"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
       <c r="C114" s="57"/>
@@ -4557,7 +4563,7 @@
       <c r="V114" s="57"/>
       <c r="W114" s="58"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
       <c r="C115" s="57"/>
@@ -4582,7 +4588,7 @@
       <c r="V115" s="57"/>
       <c r="W115" s="58"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="57"/>
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
@@ -4607,7 +4613,7 @@
       <c r="V116" s="57"/>
       <c r="W116" s="58"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
       <c r="C117" s="57"/>
@@ -4632,7 +4638,7 @@
       <c r="V117" s="57"/>
       <c r="W117" s="58"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
@@ -4657,7 +4663,7 @@
       <c r="V118" s="57"/>
       <c r="W118" s="58"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
       <c r="C119" s="57"/>
@@ -4682,7 +4688,7 @@
       <c r="V119" s="57"/>
       <c r="W119" s="58"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="57"/>
       <c r="B120" s="57"/>
       <c r="C120" s="57"/>
@@ -4707,7 +4713,7 @@
       <c r="V120" s="57"/>
       <c r="W120" s="58"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
       <c r="C121" s="57"/>
@@ -4732,7 +4738,7 @@
       <c r="V121" s="57"/>
       <c r="W121" s="58"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
       <c r="C122" s="57"/>
@@ -4757,7 +4763,7 @@
       <c r="V122" s="57"/>
       <c r="W122" s="58"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
       <c r="C123" s="57"/>
@@ -4782,7 +4788,7 @@
       <c r="V123" s="57"/>
       <c r="W123" s="58"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="57"/>
       <c r="B124" s="57"/>
       <c r="C124" s="57"/>
@@ -4807,7 +4813,7 @@
       <c r="V124" s="57"/>
       <c r="W124" s="58"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
       <c r="C125" s="57"/>
@@ -4832,7 +4838,7 @@
       <c r="V125" s="57"/>
       <c r="W125" s="58"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
       <c r="C126" s="57"/>
@@ -4857,7 +4863,7 @@
       <c r="V126" s="57"/>
       <c r="W126" s="58"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
       <c r="C127" s="57"/>
@@ -4882,7 +4888,7 @@
       <c r="V127" s="57"/>
       <c r="W127" s="58"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="57"/>
       <c r="B128" s="57"/>
       <c r="C128" s="57"/>
@@ -4907,7 +4913,7 @@
       <c r="V128" s="57"/>
       <c r="W128" s="58"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
       <c r="C129" s="57"/>
@@ -4932,7 +4938,7 @@
       <c r="V129" s="57"/>
       <c r="W129" s="58"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
       <c r="C130" s="57"/>
@@ -4957,7 +4963,7 @@
       <c r="V130" s="57"/>
       <c r="W130" s="58"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
       <c r="C131" s="57"/>
@@ -4982,7 +4988,7 @@
       <c r="V131" s="57"/>
       <c r="W131" s="58"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="57"/>
       <c r="B132" s="57"/>
       <c r="C132" s="57"/>
@@ -5003,7 +5009,7 @@
       <c r="R132" s="58"/>
       <c r="W132" s="58"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="57"/>
       <c r="B133" s="57"/>
       <c r="C133" s="57"/>
@@ -5024,7 +5030,7 @@
       <c r="R133" s="58"/>
       <c r="W133" s="58"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
       <c r="C134" s="57"/>
@@ -5045,7 +5051,7 @@
       <c r="R134" s="58"/>
       <c r="W134" s="58"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
       <c r="C135" s="57"/>
@@ -5066,7 +5072,7 @@
       <c r="R135" s="58"/>
       <c r="W135" s="58"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="57"/>
       <c r="B136" s="57"/>
       <c r="C136" s="57"/>
@@ -5087,7 +5093,7 @@
       <c r="R136" s="58"/>
       <c r="W136" s="58"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="57"/>
       <c r="B137" s="57"/>
       <c r="C137" s="57"/>
@@ -5108,7 +5114,7 @@
       <c r="R137" s="58"/>
       <c r="W137" s="58"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="57"/>
       <c r="B138" s="57"/>
       <c r="C138" s="57"/>
@@ -5129,7 +5135,7 @@
       <c r="R138" s="58"/>
       <c r="W138" s="58"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="57"/>
       <c r="B139" s="57"/>
       <c r="C139" s="57"/>
@@ -5150,7 +5156,7 @@
       <c r="R139" s="58"/>
       <c r="W139" s="58"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="57"/>
       <c r="B140" s="57"/>
       <c r="C140" s="57"/>
@@ -5171,7 +5177,7 @@
       <c r="R140" s="58"/>
       <c r="W140" s="58"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="57"/>
       <c r="B141" s="57"/>
       <c r="C141" s="57"/>
@@ -5192,7 +5198,7 @@
       <c r="R141" s="58"/>
       <c r="W141" s="58"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="57"/>
       <c r="B142" s="57"/>
       <c r="C142" s="57"/>
@@ -5213,7 +5219,7 @@
       <c r="R142" s="58"/>
       <c r="W142" s="58"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="57"/>
       <c r="B143" s="57"/>
       <c r="C143" s="57"/>
@@ -5234,7 +5240,7 @@
       <c r="R143" s="58"/>
       <c r="W143" s="58"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="57"/>
       <c r="B144" s="57"/>
       <c r="C144" s="57"/>
@@ -5255,7 +5261,7 @@
       <c r="R144" s="58"/>
       <c r="W144" s="58"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="57"/>
       <c r="B145" s="57"/>
       <c r="C145" s="57"/>
@@ -5276,7 +5282,7 @@
       <c r="R145" s="58"/>
       <c r="W145" s="58"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="57"/>
       <c r="B146" s="57"/>
       <c r="C146" s="57"/>
@@ -5297,7 +5303,7 @@
       <c r="R146" s="58"/>
       <c r="W146" s="58"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="57"/>
       <c r="B147" s="57"/>
       <c r="C147" s="57"/>
@@ -5318,7 +5324,7 @@
       <c r="R147" s="58"/>
       <c r="W147" s="58"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -5339,7 +5345,7 @@
       <c r="R148" s="58"/>
       <c r="W148" s="58"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="57"/>
@@ -5360,7 +5366,7 @@
       <c r="R149" s="58"/>
       <c r="W149" s="58"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="57"/>
       <c r="B150" s="57"/>
       <c r="C150" s="57"/>
@@ -5381,7 +5387,7 @@
       <c r="R150" s="58"/>
       <c r="W150" s="58"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="57"/>
       <c r="B151" s="57"/>
       <c r="C151" s="57"/>
@@ -5402,7 +5408,7 @@
       <c r="R151" s="58"/>
       <c r="W151" s="58"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="57"/>
       <c r="B152" s="57"/>
       <c r="C152" s="57"/>
@@ -5423,7 +5429,7 @@
       <c r="R152" s="58"/>
       <c r="W152" s="58"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
       <c r="C153" s="57"/>
@@ -5444,7 +5450,7 @@
       <c r="R153" s="58"/>
       <c r="W153" s="58"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
       <c r="C154" s="57"/>
@@ -5465,7 +5471,7 @@
       <c r="R154" s="58"/>
       <c r="W154" s="58"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
       <c r="C155" s="57"/>
@@ -5486,7 +5492,7 @@
       <c r="R155" s="58"/>
       <c r="W155" s="58"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
       <c r="C156" s="57"/>
@@ -5507,7 +5513,7 @@
       <c r="R156" s="58"/>
       <c r="W156" s="58"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
       <c r="C157" s="57"/>
@@ -5528,7 +5534,7 @@
       <c r="R157" s="58"/>
       <c r="W157" s="58"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
       <c r="C158" s="57"/>
@@ -5549,7 +5555,7 @@
       <c r="R158" s="58"/>
       <c r="W158" s="58"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="57"/>
@@ -5570,7 +5576,7 @@
       <c r="R159" s="58"/>
       <c r="W159" s="58"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="57"/>
@@ -5591,7 +5597,7 @@
       <c r="R160" s="58"/>
       <c r="W160" s="58"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="57"/>
@@ -5612,7 +5618,7 @@
       <c r="R161" s="58"/>
       <c r="W161" s="58"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="57"/>
@@ -5633,7 +5639,7 @@
       <c r="R162" s="58"/>
       <c r="W162" s="58"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="57"/>
@@ -5654,7 +5660,7 @@
       <c r="R163" s="58"/>
       <c r="W163" s="58"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="57"/>
       <c r="B164" s="57"/>
       <c r="C164" s="57"/>
@@ -5675,7 +5681,7 @@
       <c r="R164" s="58"/>
       <c r="W164" s="58"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="57"/>
@@ -5696,7 +5702,7 @@
       <c r="R165" s="58"/>
       <c r="W165" s="58"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="57"/>
@@ -5747,21 +5753,22 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S3" r:id="rId1" display="http://192.168.60.204/browse/CODESPLIT-21"/>
+    <hyperlink ref="S5" r:id="rId2" display="http://192.168.60.204/browse/SLOW-207"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5781,7 +5788,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
@@ -5837,7 +5844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5857,7 +5864,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5877,7 +5884,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5904,14 +5911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5923,7 +5930,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
         <v>48</v>
       </c>
@@ -5938,7 +5945,7 @@
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>49</v>
       </c>
@@ -5973,7 +5980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="20"/>
@@ -5986,7 +5993,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="87"/>
       <c r="B4" s="88"/>
       <c r="C4" s="20"/>
@@ -5999,7 +6006,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="86"/>
       <c r="B5" s="86"/>
       <c r="C5" s="20"/>
@@ -6012,7 +6019,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="20"/>
@@ -6025,7 +6032,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="88"/>
       <c r="B7" s="88"/>
       <c r="C7" s="20"/>
@@ -6038,7 +6045,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="88"/>
       <c r="B8" s="88"/>
       <c r="C8" s="20"/>
@@ -6051,7 +6058,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="88"/>
       <c r="B9" s="88"/>
       <c r="C9" s="20"/>
@@ -6064,7 +6071,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="20"/>
@@ -6077,7 +6084,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6104,14 +6111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6126,7 +6133,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6143,7 +6150,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6158,7 +6165,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6199,7 +6206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6238,7 +6245,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6253,7 +6260,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6268,7 +6275,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6283,7 +6290,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6298,7 +6305,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6313,7 +6320,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6328,7 +6335,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6343,7 +6350,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6358,7 +6365,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6373,7 +6380,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6388,7 +6395,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6403,7 +6410,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6442,14 +6449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6464,7 +6471,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6481,7 +6488,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6496,7 +6503,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6537,7 +6544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6576,7 +6583,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6591,7 +6598,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6606,7 +6613,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6621,7 +6628,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6636,7 +6643,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6651,7 +6658,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6666,7 +6673,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6681,7 +6688,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6696,7 +6703,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6711,7 +6718,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6726,7 +6733,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6741,7 +6748,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6780,14 +6787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6802,7 +6809,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6819,7 +6826,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6834,7 +6841,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6875,7 +6882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6914,7 +6921,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6929,7 +6936,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6944,7 +6951,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6959,7 +6966,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6974,7 +6981,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6989,7 +6996,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7004,7 +7011,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7019,7 +7026,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7034,7 +7041,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7049,7 +7056,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7064,7 +7071,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7079,7 +7086,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7118,14 +7125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7142,7 +7149,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -7159,7 +7166,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -7174,7 +7181,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5">
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -7215,7 +7222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.5">
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7254,7 +7261,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5">
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="79"/>
@@ -7274,7 +7281,7 @@
       <c r="R5" s="74"/>
       <c r="S5" s="52"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5">
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7288,7 +7295,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5">
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7303,7 +7310,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5">
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7318,7 +7325,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5">
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7333,7 +7340,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5">
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7348,7 +7355,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5">
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7363,7 +7370,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5">
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7378,7 +7385,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5">
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7393,7 +7400,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5">
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7408,7 +7415,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5">
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7423,7 +7430,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5">
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7477,14 +7484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7495,7 +7502,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -7521,7 +7528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7531,7 +7538,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7541,7 +7548,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7551,7 +7558,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7561,7 +7568,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7571,7 +7578,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7581,7 +7588,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7591,7 +7598,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7601,7 +7608,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7611,7 +7618,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7621,7 +7628,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7631,7 +7638,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7641,7 +7648,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7651,7 +7658,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7661,7 +7668,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7671,7 +7678,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7681,7 +7688,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7691,7 +7698,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1782,7 +1782,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F5" s="59" t="s">
         <v>103</v>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22170" windowHeight="6240" tabRatio="714"/>
@@ -24,13 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -384,13 +383,33 @@
   </si>
   <si>
     <t>SLOW-207</t>
+  </si>
+  <si>
+    <t>业务日志表数据监控</t>
+  </si>
+  <si>
+    <t>所有项目(renterpc,renter,
+renter服务窗后台,payapi,tasktracker,partnerpc,partner,房东个人版，mododa-tasktrasck,bs）</t>
+  </si>
+  <si>
+    <t>王涛</t>
+  </si>
+  <si>
+    <t>已提测，但无测试资源</t>
+  </si>
+  <si>
+    <t>TOPT-434</t>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1121,7 +1140,7 @@
     <cellStyle name="超链接" xfId="19" builtinId="8"/>
     <cellStyle name="甘特图" xfId="4"/>
     <cellStyle name="甘特图 2" xfId="11"/>
-    <cellStyle name="着色 4" xfId="16" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="16" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1479,14 +1498,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1513,7 +1532,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1642,7 +1661,7 @@
       <c r="W2" s="74"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="115.5">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1656,7 +1675,7 @@
         <v>95</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>91</v>
@@ -1698,13 +1717,15 @@
       </c>
       <c r="T3" s="57"/>
       <c r="U3" s="57"/>
-      <c r="V3" s="70"/>
+      <c r="V3" s="70" t="s">
+        <v>100</v>
+      </c>
       <c r="W3" s="74" t="s">
         <v>107</v>
       </c>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="51">
         <v>3</v>
       </c>
@@ -1768,7 +1789,7 @@
       <c r="W4" s="74"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="51">
         <v>4</v>
       </c>
@@ -1782,7 +1803,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F5" s="59" t="s">
         <v>103</v>
@@ -1830,33 +1851,67 @@
       <c r="W5" s="74"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="115.5">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="60">
+        <v>42754</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="60">
+        <v>42754</v>
+      </c>
       <c r="K6" s="59"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="59"/>
+      <c r="L6" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>27</v>
+      </c>
       <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
+      <c r="O6" s="68" t="s">
+        <v>113</v>
+      </c>
       <c r="P6" s="63"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="57"/>
+      <c r="Q6" s="60">
+        <v>42754</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="57" t="s">
+        <v>114</v>
+      </c>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
-      <c r="V6" s="70"/>
+      <c r="V6" s="70" t="s">
+        <v>100</v>
+      </c>
       <c r="W6" s="74"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1882,7 +1937,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1908,7 +1963,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1934,7 +1989,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1960,7 +2015,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1986,7 +2041,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -2012,7 +2067,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -2038,7 +2093,7 @@
       <c r="W13" s="76"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -2063,7 +2118,7 @@
       <c r="V14" s="57"/>
       <c r="W14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2088,7 +2143,7 @@
       <c r="V15" s="57"/>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2113,7 +2168,7 @@
       <c r="V16" s="57"/>
       <c r="W16" s="58"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2138,7 +2193,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="74"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2163,7 +2218,7 @@
       <c r="V18" s="57"/>
       <c r="W18" s="74"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2188,7 +2243,7 @@
       <c r="V19" s="57"/>
       <c r="W19" s="74"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2213,7 +2268,7 @@
       <c r="V20" s="72"/>
       <c r="W20" s="77"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2238,7 +2293,7 @@
       <c r="V21" s="73"/>
       <c r="W21" s="77"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2263,7 +2318,7 @@
       <c r="V22" s="78"/>
       <c r="W22" s="77"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2288,7 +2343,7 @@
       <c r="V23" s="73"/>
       <c r="W23" s="77"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2313,7 +2368,7 @@
       <c r="V24" s="73"/>
       <c r="W24" s="77"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2338,7 +2393,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="63"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2363,7 +2418,7 @@
       <c r="V26" s="57"/>
       <c r="W26" s="74"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2388,7 +2443,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="74"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2413,7 +2468,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="74"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2438,7 +2493,7 @@
       <c r="V29" s="73"/>
       <c r="W29" s="77"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2463,7 +2518,7 @@
       <c r="V30" s="57"/>
       <c r="W30" s="52"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2488,7 +2543,7 @@
       <c r="V31" s="57"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2513,7 +2568,7 @@
       <c r="V32" s="57"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2538,7 +2593,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="74"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2563,7 +2618,7 @@
       <c r="V34" s="57"/>
       <c r="W34" s="74"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2588,7 +2643,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2613,7 +2668,7 @@
       <c r="V36" s="57"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2638,7 +2693,7 @@
       <c r="V37" s="57"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2663,7 +2718,7 @@
       <c r="V38" s="57"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2688,7 +2743,7 @@
       <c r="V39" s="57"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2713,7 +2768,7 @@
       <c r="V40" s="57"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2738,7 +2793,7 @@
       <c r="V41" s="71"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2763,7 +2818,7 @@
       <c r="V42" s="71"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2788,7 +2843,7 @@
       <c r="V43" s="57"/>
       <c r="W43" s="58"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2813,7 +2868,7 @@
       <c r="V44" s="57"/>
       <c r="W44" s="58"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2838,7 +2893,7 @@
       <c r="V45" s="57"/>
       <c r="W45" s="58"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2863,7 +2918,7 @@
       <c r="V46" s="57"/>
       <c r="W46" s="58"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2888,7 +2943,7 @@
       <c r="V47" s="57"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2913,7 +2968,7 @@
       <c r="V48" s="57"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2938,7 +2993,7 @@
       <c r="V49" s="57"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="57"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -2963,7 +3018,7 @@
       <c r="V50" s="57"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
@@ -2988,7 +3043,7 @@
       <c r="V51" s="57"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="57"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -3013,7 +3068,7 @@
       <c r="V52" s="57"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -3038,7 +3093,7 @@
       <c r="V53" s="57"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -3063,7 +3118,7 @@
       <c r="V54" s="57"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -3088,7 +3143,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="58"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -3113,7 +3168,7 @@
       <c r="V56" s="57"/>
       <c r="W56" s="58"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -3138,7 +3193,7 @@
       <c r="V57" s="57"/>
       <c r="W57" s="58"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -3163,7 +3218,7 @@
       <c r="V58" s="57"/>
       <c r="W58" s="58"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -3188,7 +3243,7 @@
       <c r="V59" s="57"/>
       <c r="W59" s="58"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="57"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -3213,7 +3268,7 @@
       <c r="V60" s="57"/>
       <c r="W60" s="58"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -3238,7 +3293,7 @@
       <c r="V61" s="57"/>
       <c r="W61" s="58"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="57"/>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -3263,7 +3318,7 @@
       <c r="V62" s="57"/>
       <c r="W62" s="58"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -3288,7 +3343,7 @@
       <c r="V63" s="57"/>
       <c r="W63" s="58"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="57"/>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -3313,7 +3368,7 @@
       <c r="V64" s="57"/>
       <c r="W64" s="58"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="57"/>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -3338,7 +3393,7 @@
       <c r="V65" s="57"/>
       <c r="W65" s="58"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="57"/>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -3363,7 +3418,7 @@
       <c r="V66" s="57"/>
       <c r="W66" s="58"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="57"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -3388,7 +3443,7 @@
       <c r="V67" s="57"/>
       <c r="W67" s="58"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="57"/>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -3413,7 +3468,7 @@
       <c r="V68" s="57"/>
       <c r="W68" s="58"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="57"/>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -3438,7 +3493,7 @@
       <c r="V69" s="57"/>
       <c r="W69" s="58"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="57"/>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -3463,7 +3518,7 @@
       <c r="V70" s="57"/>
       <c r="W70" s="58"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="57"/>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -3488,7 +3543,7 @@
       <c r="V71" s="57"/>
       <c r="W71" s="58"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="57"/>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -3513,7 +3568,7 @@
       <c r="V72" s="57"/>
       <c r="W72" s="58"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="57"/>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -3538,7 +3593,7 @@
       <c r="V73" s="57"/>
       <c r="W73" s="58"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="57"/>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -3563,7 +3618,7 @@
       <c r="V74" s="57"/>
       <c r="W74" s="58"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="57"/>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -3588,7 +3643,7 @@
       <c r="V75" s="57"/>
       <c r="W75" s="58"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23">
       <c r="A76" s="57"/>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -3613,7 +3668,7 @@
       <c r="V76" s="57"/>
       <c r="W76" s="58"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23">
       <c r="A77" s="57"/>
       <c r="B77" s="57"/>
       <c r="C77" s="57"/>
@@ -3638,7 +3693,7 @@
       <c r="V77" s="57"/>
       <c r="W77" s="58"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23">
       <c r="A78" s="57"/>
       <c r="B78" s="57"/>
       <c r="C78" s="57"/>
@@ -3663,7 +3718,7 @@
       <c r="V78" s="57"/>
       <c r="W78" s="58"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="57"/>
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
@@ -3688,7 +3743,7 @@
       <c r="V79" s="57"/>
       <c r="W79" s="58"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="57"/>
       <c r="B80" s="57"/>
       <c r="C80" s="57"/>
@@ -3713,7 +3768,7 @@
       <c r="V80" s="57"/>
       <c r="W80" s="58"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="57"/>
       <c r="B81" s="57"/>
       <c r="C81" s="57"/>
@@ -3738,7 +3793,7 @@
       <c r="V81" s="57"/>
       <c r="W81" s="58"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="57"/>
       <c r="B82" s="57"/>
       <c r="C82" s="57"/>
@@ -3763,7 +3818,7 @@
       <c r="V82" s="57"/>
       <c r="W82" s="58"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="57"/>
       <c r="B83" s="57"/>
       <c r="C83" s="57"/>
@@ -3788,7 +3843,7 @@
       <c r="V83" s="57"/>
       <c r="W83" s="58"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="57"/>
       <c r="B84" s="57"/>
       <c r="C84" s="57"/>
@@ -3813,7 +3868,7 @@
       <c r="V84" s="57"/>
       <c r="W84" s="58"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="57"/>
       <c r="B85" s="57"/>
       <c r="C85" s="57"/>
@@ -3838,7 +3893,7 @@
       <c r="V85" s="57"/>
       <c r="W85" s="58"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="57"/>
       <c r="B86" s="57"/>
       <c r="C86" s="57"/>
@@ -3863,7 +3918,7 @@
       <c r="V86" s="57"/>
       <c r="W86" s="58"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="57"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57"/>
@@ -3888,7 +3943,7 @@
       <c r="V87" s="57"/>
       <c r="W87" s="58"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="57"/>
       <c r="B88" s="57"/>
       <c r="C88" s="57"/>
@@ -3913,7 +3968,7 @@
       <c r="V88" s="57"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="57"/>
       <c r="B89" s="57"/>
       <c r="C89" s="57"/>
@@ -3938,7 +3993,7 @@
       <c r="V89" s="57"/>
       <c r="W89" s="58"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
@@ -3963,7 +4018,7 @@
       <c r="V90" s="57"/>
       <c r="W90" s="58"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
@@ -3988,7 +4043,7 @@
       <c r="V91" s="57"/>
       <c r="W91" s="58"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
@@ -4013,7 +4068,7 @@
       <c r="V92" s="57"/>
       <c r="W92" s="58"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
@@ -4038,7 +4093,7 @@
       <c r="V93" s="57"/>
       <c r="W93" s="58"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
@@ -4063,7 +4118,7 @@
       <c r="V94" s="57"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
@@ -4088,7 +4143,7 @@
       <c r="V95" s="57"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
@@ -4113,7 +4168,7 @@
       <c r="V96" s="57"/>
       <c r="W96" s="58"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
@@ -4138,7 +4193,7 @@
       <c r="V97" s="57"/>
       <c r="W97" s="58"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -4163,7 +4218,7 @@
       <c r="V98" s="57"/>
       <c r="W98" s="58"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="57"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
@@ -4188,7 +4243,7 @@
       <c r="V99" s="57"/>
       <c r="W99" s="58"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="57"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
@@ -4213,7 +4268,7 @@
       <c r="V100" s="57"/>
       <c r="W100" s="58"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
@@ -4238,7 +4293,7 @@
       <c r="V101" s="57"/>
       <c r="W101" s="58"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
       <c r="C102" s="57"/>
@@ -4263,7 +4318,7 @@
       <c r="V102" s="57"/>
       <c r="W102" s="58"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
       <c r="C103" s="57"/>
@@ -4288,7 +4343,7 @@
       <c r="V103" s="57"/>
       <c r="W103" s="58"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
@@ -4313,7 +4368,7 @@
       <c r="V104" s="57"/>
       <c r="W104" s="58"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
       <c r="C105" s="57"/>
@@ -4338,7 +4393,7 @@
       <c r="V105" s="57"/>
       <c r="W105" s="58"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
       <c r="C106" s="57"/>
@@ -4363,7 +4418,7 @@
       <c r="V106" s="57"/>
       <c r="W106" s="58"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="57"/>
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
@@ -4388,7 +4443,7 @@
       <c r="V107" s="57"/>
       <c r="W107" s="58"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
       <c r="C108" s="57"/>
@@ -4413,7 +4468,7 @@
       <c r="V108" s="57"/>
       <c r="W108" s="58"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
       <c r="C109" s="57"/>
@@ -4438,7 +4493,7 @@
       <c r="V109" s="57"/>
       <c r="W109" s="58"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
@@ -4463,7 +4518,7 @@
       <c r="V110" s="57"/>
       <c r="W110" s="58"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
       <c r="C111" s="57"/>
@@ -4488,7 +4543,7 @@
       <c r="V111" s="57"/>
       <c r="W111" s="58"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="57"/>
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
@@ -4513,7 +4568,7 @@
       <c r="V112" s="57"/>
       <c r="W112" s="58"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
@@ -4538,7 +4593,7 @@
       <c r="V113" s="57"/>
       <c r="W113" s="58"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
       <c r="C114" s="57"/>
@@ -4563,7 +4618,7 @@
       <c r="V114" s="57"/>
       <c r="W114" s="58"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
       <c r="C115" s="57"/>
@@ -4588,7 +4643,7 @@
       <c r="V115" s="57"/>
       <c r="W115" s="58"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="57"/>
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
@@ -4613,7 +4668,7 @@
       <c r="V116" s="57"/>
       <c r="W116" s="58"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
       <c r="C117" s="57"/>
@@ -4638,7 +4693,7 @@
       <c r="V117" s="57"/>
       <c r="W117" s="58"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
@@ -4663,7 +4718,7 @@
       <c r="V118" s="57"/>
       <c r="W118" s="58"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
       <c r="C119" s="57"/>
@@ -4688,7 +4743,7 @@
       <c r="V119" s="57"/>
       <c r="W119" s="58"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="57"/>
       <c r="B120" s="57"/>
       <c r="C120" s="57"/>
@@ -4713,7 +4768,7 @@
       <c r="V120" s="57"/>
       <c r="W120" s="58"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
       <c r="C121" s="57"/>
@@ -4738,7 +4793,7 @@
       <c r="V121" s="57"/>
       <c r="W121" s="58"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
       <c r="C122" s="57"/>
@@ -4763,7 +4818,7 @@
       <c r="V122" s="57"/>
       <c r="W122" s="58"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
       <c r="C123" s="57"/>
@@ -4788,7 +4843,7 @@
       <c r="V123" s="57"/>
       <c r="W123" s="58"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="57"/>
       <c r="B124" s="57"/>
       <c r="C124" s="57"/>
@@ -4813,7 +4868,7 @@
       <c r="V124" s="57"/>
       <c r="W124" s="58"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
       <c r="C125" s="57"/>
@@ -4838,7 +4893,7 @@
       <c r="V125" s="57"/>
       <c r="W125" s="58"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
       <c r="C126" s="57"/>
@@ -4863,7 +4918,7 @@
       <c r="V126" s="57"/>
       <c r="W126" s="58"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
       <c r="C127" s="57"/>
@@ -4888,7 +4943,7 @@
       <c r="V127" s="57"/>
       <c r="W127" s="58"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="57"/>
       <c r="B128" s="57"/>
       <c r="C128" s="57"/>
@@ -4913,7 +4968,7 @@
       <c r="V128" s="57"/>
       <c r="W128" s="58"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
       <c r="C129" s="57"/>
@@ -4938,7 +4993,7 @@
       <c r="V129" s="57"/>
       <c r="W129" s="58"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
       <c r="C130" s="57"/>
@@ -4963,7 +5018,7 @@
       <c r="V130" s="57"/>
       <c r="W130" s="58"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
       <c r="C131" s="57"/>
@@ -4988,7 +5043,7 @@
       <c r="V131" s="57"/>
       <c r="W131" s="58"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="57"/>
       <c r="B132" s="57"/>
       <c r="C132" s="57"/>
@@ -5009,7 +5064,7 @@
       <c r="R132" s="58"/>
       <c r="W132" s="58"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="57"/>
       <c r="B133" s="57"/>
       <c r="C133" s="57"/>
@@ -5030,7 +5085,7 @@
       <c r="R133" s="58"/>
       <c r="W133" s="58"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
       <c r="C134" s="57"/>
@@ -5051,7 +5106,7 @@
       <c r="R134" s="58"/>
       <c r="W134" s="58"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
       <c r="C135" s="57"/>
@@ -5072,7 +5127,7 @@
       <c r="R135" s="58"/>
       <c r="W135" s="58"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="57"/>
       <c r="B136" s="57"/>
       <c r="C136" s="57"/>
@@ -5093,7 +5148,7 @@
       <c r="R136" s="58"/>
       <c r="W136" s="58"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="57"/>
       <c r="B137" s="57"/>
       <c r="C137" s="57"/>
@@ -5114,7 +5169,7 @@
       <c r="R137" s="58"/>
       <c r="W137" s="58"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="57"/>
       <c r="B138" s="57"/>
       <c r="C138" s="57"/>
@@ -5135,7 +5190,7 @@
       <c r="R138" s="58"/>
       <c r="W138" s="58"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="57"/>
       <c r="B139" s="57"/>
       <c r="C139" s="57"/>
@@ -5156,7 +5211,7 @@
       <c r="R139" s="58"/>
       <c r="W139" s="58"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="57"/>
       <c r="B140" s="57"/>
       <c r="C140" s="57"/>
@@ -5177,7 +5232,7 @@
       <c r="R140" s="58"/>
       <c r="W140" s="58"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="57"/>
       <c r="B141" s="57"/>
       <c r="C141" s="57"/>
@@ -5198,7 +5253,7 @@
       <c r="R141" s="58"/>
       <c r="W141" s="58"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="57"/>
       <c r="B142" s="57"/>
       <c r="C142" s="57"/>
@@ -5219,7 +5274,7 @@
       <c r="R142" s="58"/>
       <c r="W142" s="58"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="57"/>
       <c r="B143" s="57"/>
       <c r="C143" s="57"/>
@@ -5240,7 +5295,7 @@
       <c r="R143" s="58"/>
       <c r="W143" s="58"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="57"/>
       <c r="B144" s="57"/>
       <c r="C144" s="57"/>
@@ -5261,7 +5316,7 @@
       <c r="R144" s="58"/>
       <c r="W144" s="58"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="57"/>
       <c r="B145" s="57"/>
       <c r="C145" s="57"/>
@@ -5282,7 +5337,7 @@
       <c r="R145" s="58"/>
       <c r="W145" s="58"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="57"/>
       <c r="B146" s="57"/>
       <c r="C146" s="57"/>
@@ -5303,7 +5358,7 @@
       <c r="R146" s="58"/>
       <c r="W146" s="58"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="57"/>
       <c r="B147" s="57"/>
       <c r="C147" s="57"/>
@@ -5324,7 +5379,7 @@
       <c r="R147" s="58"/>
       <c r="W147" s="58"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -5345,7 +5400,7 @@
       <c r="R148" s="58"/>
       <c r="W148" s="58"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="57"/>
@@ -5366,7 +5421,7 @@
       <c r="R149" s="58"/>
       <c r="W149" s="58"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="57"/>
       <c r="B150" s="57"/>
       <c r="C150" s="57"/>
@@ -5387,7 +5442,7 @@
       <c r="R150" s="58"/>
       <c r="W150" s="58"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="57"/>
       <c r="B151" s="57"/>
       <c r="C151" s="57"/>
@@ -5408,7 +5463,7 @@
       <c r="R151" s="58"/>
       <c r="W151" s="58"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="57"/>
       <c r="B152" s="57"/>
       <c r="C152" s="57"/>
@@ -5429,7 +5484,7 @@
       <c r="R152" s="58"/>
       <c r="W152" s="58"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
       <c r="C153" s="57"/>
@@ -5450,7 +5505,7 @@
       <c r="R153" s="58"/>
       <c r="W153" s="58"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
       <c r="C154" s="57"/>
@@ -5471,7 +5526,7 @@
       <c r="R154" s="58"/>
       <c r="W154" s="58"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
       <c r="C155" s="57"/>
@@ -5492,7 +5547,7 @@
       <c r="R155" s="58"/>
       <c r="W155" s="58"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
       <c r="C156" s="57"/>
@@ -5513,7 +5568,7 @@
       <c r="R156" s="58"/>
       <c r="W156" s="58"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
       <c r="C157" s="57"/>
@@ -5534,7 +5589,7 @@
       <c r="R157" s="58"/>
       <c r="W157" s="58"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
       <c r="C158" s="57"/>
@@ -5555,7 +5610,7 @@
       <c r="R158" s="58"/>
       <c r="W158" s="58"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="57"/>
@@ -5576,7 +5631,7 @@
       <c r="R159" s="58"/>
       <c r="W159" s="58"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="57"/>
@@ -5597,7 +5652,7 @@
       <c r="R160" s="58"/>
       <c r="W160" s="58"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="57"/>
@@ -5618,7 +5673,7 @@
       <c r="R161" s="58"/>
       <c r="W161" s="58"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="57"/>
@@ -5639,7 +5694,7 @@
       <c r="R162" s="58"/>
       <c r="W162" s="58"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="57"/>
@@ -5660,7 +5715,7 @@
       <c r="R163" s="58"/>
       <c r="W163" s="58"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="57"/>
       <c r="B164" s="57"/>
       <c r="C164" s="57"/>
@@ -5681,7 +5736,7 @@
       <c r="R164" s="58"/>
       <c r="W164" s="58"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="57"/>
@@ -5702,7 +5757,7 @@
       <c r="R165" s="58"/>
       <c r="W165" s="58"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="57"/>
@@ -5738,7 +5793,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -5761,14 +5816,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5788,7 +5843,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
@@ -5844,7 +5899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5864,7 +5919,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5884,7 +5939,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5911,14 +5966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5930,7 +5985,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="84" t="s">
         <v>48</v>
       </c>
@@ -5945,7 +6000,7 @@
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>49</v>
       </c>
@@ -5980,7 +6035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="20"/>
@@ -5993,7 +6048,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="87"/>
       <c r="B4" s="88"/>
       <c r="C4" s="20"/>
@@ -6006,7 +6061,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="86"/>
       <c r="B5" s="86"/>
       <c r="C5" s="20"/>
@@ -6019,7 +6074,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="20"/>
@@ -6032,7 +6087,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="88"/>
       <c r="B7" s="88"/>
       <c r="C7" s="20"/>
@@ -6045,7 +6100,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="88"/>
       <c r="B8" s="88"/>
       <c r="C8" s="20"/>
@@ -6058,7 +6113,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="88"/>
       <c r="B9" s="88"/>
       <c r="C9" s="20"/>
@@ -6071,7 +6126,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="20"/>
@@ -6084,7 +6139,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6111,14 +6166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6133,7 +6188,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6150,7 +6205,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6165,7 +6220,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6206,7 +6261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6245,7 +6300,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6260,7 +6315,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6275,7 +6330,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6290,7 +6345,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6305,7 +6360,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6320,7 +6375,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6335,7 +6390,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6350,7 +6405,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6365,7 +6420,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6380,7 +6435,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6395,7 +6450,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6410,7 +6465,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6449,14 +6504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6471,7 +6526,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6488,7 +6543,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6503,7 +6558,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6544,7 +6599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6583,7 +6638,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6598,7 +6653,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6613,7 +6668,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6628,7 +6683,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6643,7 +6698,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6658,7 +6713,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6673,7 +6728,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6688,7 +6743,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6703,7 +6758,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6718,7 +6773,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6733,7 +6788,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6748,7 +6803,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6787,14 +6842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6809,7 +6864,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -6826,7 +6881,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6841,7 +6896,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -6882,7 +6937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6921,7 +6976,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6936,7 +6991,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6951,7 +7006,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6966,7 +7021,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6981,7 +7036,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6996,7 +7051,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7011,7 +7066,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7026,7 +7081,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7041,7 +7096,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7056,7 +7111,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7071,7 +7126,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7086,7 +7141,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7125,14 +7180,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7149,7 +7204,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" s="89" t="s">
         <v>59</v>
       </c>
@@ -7166,7 +7221,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -7181,7 +7236,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -7222,7 +7277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7261,7 +7316,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="79"/>
@@ -7281,7 +7336,7 @@
       <c r="R5" s="74"/>
       <c r="S5" s="52"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="16.5">
       <c r="A6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7295,7 +7350,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7310,7 +7365,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7325,7 +7380,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7340,7 +7395,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7355,7 +7410,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7370,7 +7425,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7385,7 +7440,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7400,7 +7455,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7415,7 +7470,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7430,7 +7485,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7484,14 +7539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7502,7 +7557,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -7528,7 +7583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7538,7 +7593,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7548,7 +7603,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7558,7 +7613,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7568,7 +7623,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7578,7 +7633,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7588,7 +7643,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7598,7 +7653,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7608,7 +7663,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7618,7 +7673,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7628,7 +7683,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7638,7 +7693,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7648,7 +7703,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7658,7 +7713,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7668,7 +7723,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7678,7 +7733,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7688,7 +7743,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7698,7 +7753,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_架构组.xlsx
@@ -368,9 +368,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -473,13 +473,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -488,9 +481,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,6 +507,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,14 +535,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -542,6 +548,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -549,9 +564,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,20 +606,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,53 +628,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -685,6 +685,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -703,13 +715,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +739,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,55 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,37 +853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,11 +1036,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1062,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,6 +1098,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1086,41 +1118,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,188 +1129,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1465,7 +1465,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,7 +1477,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,19 +1486,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
@@ -1588,21 +1588,21 @@
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="2"/>
-    <cellStyle name="常规 3 12" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="4"/>
+    <cellStyle name="常规 9" xfId="1"/>
+    <cellStyle name="常规 6 2" xfId="2"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="甘特图" xfId="4"/>
     <cellStyle name="常规 4 2" xfId="5"/>
-    <cellStyle name="甘特图" xfId="6"/>
-    <cellStyle name="常规 6" xfId="7"/>
-    <cellStyle name="常规 6 2" xfId="8"/>
-    <cellStyle name="常规 9" xfId="9"/>
+    <cellStyle name="常规 3 2" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="7"/>
+    <cellStyle name="常规 2 3" xfId="8"/>
+    <cellStyle name="常规 2 2" xfId="9"/>
     <cellStyle name="常规 9 2" xfId="10"/>
     <cellStyle name="60% - Accent6" xfId="11" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="12" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="13" builtinId="48"/>
-    <cellStyle name="常规 5" xfId="14"/>
-    <cellStyle name="甘特图 2" xfId="15"/>
+    <cellStyle name="甘特图 2" xfId="14"/>
+    <cellStyle name="常规 5" xfId="15"/>
     <cellStyle name="Accent6" xfId="16" builtinId="49"/>
     <cellStyle name="常规" xfId="17"/>
     <cellStyle name="40% - Accent5" xfId="18" builtinId="47"/>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2397,7 +2397,9 @@
       <c r="M6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="O6" s="79" t="s">
         <v>54</v>
       </c>
@@ -6288,29 +6290,29 @@
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5 N7:N75">
       <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>"紧急,不紧急"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"重要,不重要"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 V$1:V$1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"重要,不重要"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7001,11 +7003,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
@@ -7340,11 +7342,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
@@ -7679,11 +7681,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
@@ -8024,26 +8026,26 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
-      <formula1>"能,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 R5">
+      <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I6 I8">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
-      <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I6 I8">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 R5">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
+      <formula1>"能,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
